--- a/news_data/2020_06.xlsx
+++ b/news_data/2020_06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,12 +22,90 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 관광국·해녀문화유산과 그대로 둔다…조직개편</t>
+  </si>
+  <si>
+    <t>'위기를 기회로' 만든 제주도…'코로나 시대' 맞춤 관광지</t>
+  </si>
+  <si>
+    <t>'이틀간 해열제 10알'…제주도, 코로나 확진 관광객에 손배소</t>
+  </si>
+  <si>
+    <t>제주도, 폭설·태풍때 관광객 '터미널 노숙' 막는다</t>
+  </si>
+  <si>
+    <t>제주도 생태관광지원센터, 생태관광 전문인력 양성교육 진행</t>
+  </si>
+  <si>
+    <t>[fn패트롤] 제주도 조직개편안 후폭풍…관광업계에 해녀까지 반발</t>
+  </si>
+  <si>
+    <t>제주도관광협회 어린이재단에 후원금 전달</t>
+  </si>
+  <si>
+    <t>강남구 코로나 확진자, 제주도에서 패키지 관광</t>
+  </si>
+  <si>
+    <t>"책임 떠넘기기"…제주도 관광국 축소통합 잇단 반발</t>
+  </si>
+  <si>
+    <t>경찰 "제주도 '오라관광단지 자본검증 요구' 하자없다" 결론</t>
+  </si>
+  <si>
+    <t>제주 여행한 관광객 2명 코로나 19 확진에 제주도 비상</t>
+  </si>
+  <si>
+    <t>거꾸로 가는 제주도 관광정책… 관광국 4년만에 폐지 반발</t>
+  </si>
+  <si>
+    <t>제주도 3박4일 여행한 코로나19 확진자…관광지 19곳 긴급방역</t>
+  </si>
+  <si>
+    <t>제주도, 관광국 축소통합 조직개편 계획…도의회는 반대</t>
+  </si>
+  <si>
+    <t>[뉴있저] 제주도, 해열제 10알 먹고 여행한 관광객에 손해배상 소송</t>
+  </si>
+  <si>
+    <t>'관광국' 4년만에 폐지…유사기구 통폐합 제주도 조직개편안 마련</t>
+  </si>
+  <si>
+    <t>제주도 "코로나19 확진 관광객 접촉자 57명 '자가격리'했다"</t>
+  </si>
+  <si>
+    <t>제주도의회, 관광국 축소통합 반대</t>
+  </si>
+  <si>
+    <t>제주도의회, 관광국 축소통합 '반대'</t>
+  </si>
+  <si>
+    <t>제주자치도관광협회 제주도 관광국 폐지에 반발</t>
+  </si>
+  <si>
+    <t>이승아 의원 "제주도, 포스트코로나 관광전략 준비 미흡"</t>
+  </si>
+  <si>
+    <t>제23회 제주도 관광기념품 공모전 개최</t>
+  </si>
+  <si>
+    <t>제주도, 조직 개편..관광국.교통국 통폐합</t>
+  </si>
+  <si>
+    <t>제주도 '관광국' 폐지...'관광1번지' 위상 추락</t>
+  </si>
+  <si>
+    <t>제주도 문화관광해설사라면 꼭 알아둬야 할 제주어</t>
+  </si>
+  <si>
+    <t>관광업계 이어 해녀들도 "제주도 하반기 조직개편 반대"</t>
+  </si>
+  <si>
+    <t>국내 관광객들, 이른 여름 즐기고자 제주도 서귀포 펜션 찾아</t>
+  </si>
+  <si>
     <t>제주도, 공공시설-공영관광지 개방 2주 연기</t>
   </si>
   <si>
-    <t>제23회 제주도 관광기념품 공모전 개최</t>
-  </si>
-  <si>
     <t>제주도, 스마트한 관제로 도민·관광객 지킨다</t>
   </si>
   <si>
@@ -52,28 +130,109 @@
     <t>제주도 여행객 코로나 확진자 동선공개..유명관광지·식당·카페 등 접촉자만...</t>
   </si>
   <si>
-    <t>제주도, 공공시설-공영관광지 개방 2주 연기 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 11:06 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 해상풍력 갈등관리, 중립적 객관적 중간지원기구 고민 할 때다 세상을 번역하는 영화번역가 황석희, 6일 제주대 강연 3년만에 열리는 제주물 세계포럼...지하수 보전관리 논의 제주4·3 전국화 초석...초중고 교과서 '4·3' 서술 양덕순 제주연구원장 예정자 “실용적 정책연구 추진” 공언 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 공공시설-공영관광지 개방 2주 연기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 공공시설-공영관광지 개방 2주 연기 기자명 이승록 기자					(leerevol@naver.com) 입력 2020.06.01 12:11 댓글 2 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 6월4일 시범운영서 18일로 연기...완전 개방도 7월6일 한라도서관 전경 제주지역 공공시설‧공영 관광지의 시범 운영이 2주 연기됐다.제주도는 당초 6월4일부터 사전예약제, 정원 제한 등 시설별 철저한 방역 준비를 전제해 최소 범위 내에서 부분 개방에 돌입할 계획을 세웠다. 하지만 지난 주말 제주도내 코로나19 15번째 확진자가 발생한데 이어 제주 여행을 한 단체여행객이 군포 지역에서 확진 판정을 잇달아 받음에 따라, 제주도는 방역 최우선 관점에서 긴장 태세를 이어가겠다는 조치다. 제주도는 앞서 ‘제주형 생활 속 거리두기’관련 브리핑을 통해 공공이 운영하는 미술관, 도서관, 실내 공영관광지 등에 대해 3단계 단계적 개방 방침을 세웠으나, 앞으로 최대잠복기 14일을 고려해 2주간 더 휴관 조치 등을 시행할 방침이다. 원희룡 지사는 “제주도는 외부 유입이 많은 섬 지역의 특성을 고려해 일률적인 거리두기가 아니라 추가 확진자 발생이나 기존보다 위험도가 커지면 전 단계로 복귀한다는 원칙이기 때문에, 제주는 전국보다 2주일 정도 더 늦게 생활 속 방역을 추진할 계획”이라고 설명했다. 이에 따라 오는 6월4일부터 이뤄질 것으로 예상된 시범 운영은 6월18일부터 시행될 예정이며, 오는 6월22일로 잠정 예상 중인 개방 확대도 7월6일에야 가능할 것으로 전망하고 있다. 앞으로 도내 공공시설들은 밀집도와 실내외, 밀폐 여부 등 시설별 상황을 고려해 운영 계획을 보완할 예정이며, 시범 운영 시에는 기존 방침대로 사전 예약제‧정원 제한 등을 통해 수용 인원의 절반 규모로 입장이 이뤄진다. 각종 행사를 비롯한 회의도 가급적 영상 및 서면·전화 등을 적극 활용하도록 권고하고, 불가피한 경우에는 소규모 행사만 개최하는 등 참석 인원을 최소화하고 시간을 단축해 운영하는 한편, 방역지침을 철저히 준수해 운영하는 방안이 유지된다. 개방 확대에 대해서는 분야별 세부 계획을 마련한 뒤 시범 개방 운영 상황을 지켜본 후, 생활방역위원회 최종 결정을 거쳐 정상 운영 방안 등을 결정할 방침이다. 한편 제주도는 지난 29일 오후 4시 도 재난안전대책본부 상황실에서 최승현 행정부지사 주재로 제주형 생활방역위원회는 1차 회의를 갖고 생활 속 거리두기 이행상황을 공유하고, 공공시설 단계별 개방 시기 등을 논의했다.이날 회의에서도 최근 수도권에서 발생한 산발적 집단감염 확산을 차단하기 위해 도내 공공시설 개방 시기 결정은 보다 철저한 준비 절차 와 상세 세부계획 마련 후 개방하는 것으로 협의한 바 있다. 또한 지난 31일 원희룡 도지사 주재로 긴급회의를 개최하며 도민과 관광객의 불안감을 최소화할 수 있도록 확진자와 관련된 동선에 대한 무료 검사 지원, 공공시설 개방 보류 등을 논의한 바 있다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 도정에 입맛에 따라 움직이던 분으로 기억하는데....전임이 아예 보수정치꼬리표를 달았다면 이분은 색깔없이 정치하는 분이란 느낌이.... 2 구직 청년 왜이렇게 많음? ㄷㄷㄷㄷ 미깡이라도 따래 댕기라 마농 심글땐 마농밭가고 3 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 5 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 6 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 7 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 8 썬오브 비치 9 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 10 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제23회 제주도 관광기념품 공모전 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제23회 제주도 관광기념품 공모전 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제23회 제주도 관광기념품 공모전 개최 고경호 기자 승인 2020.06.17 11:15 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주특별자치도관광협회가 제주를 대표할 차세대 관광기념품을 찾는다. 제주도는 제주의 문화, 먹거리, 관광명소 등을 반영한 대표 관광기념품을 발굴ㆍ육성하고자 ‘제23회 제주특별자치도관광기념품 공모전’을 개최한다고 17일 밝혔다. 올해 공모전 대상은 민ㆍ공예품, 공산품 및 가공식품 등이다. 공모전 출품을 원하는 업체 및 개인은 오는 7월 1일부터 7월 10일까지 참가신청서와 함께 출품작을 제주특별자치도관광협회(제주종합비지니스센터 1층 관광기념품 홍보관)로 접수하면 된다. 출품작은 관련분야 전문가로 구성된 심사위원단과 인터넷 신청을 통해 모집한 일반인 평가단의 심사를 거친다. 제주도는 출품작 중 총 19점을 입상작으로 선정해 7월말 최종 결과를 발표할 예정이다. 심사기준 및 배점은 상품성 60점, 디자인 20점, 창의 및 실용성 10점, 품질수준 5점, 일반인 평가 5점이며, 올해는 일반인 심사 항목을 신설해 도민의 정책 참여도를 높이고 심사의 객관성을 확보할 예정이다. 공모전 입상작에 대하여 총 2450만원의 상금(대상 1인 500만원, 금상 2인 각 300만원, 은상 3인 각 200만원, 동상 4인 각 100만원, 장려 4인 각 50만원, 입선 5인 각 30만원)이 수여되며, 수상순위 내 10명을 대상으로 상품개발 자금 지원 특전도 주어진다. 또 수상자 전원을 대상으로 도내 홍보관 전시와 온라인 마켓 탐나오 입점 및 판매지원, 대형박람회 참가, 지식재산권 국내출원 비용 등 지원과 상품화 기법 특강 등을 실시할 계획이다. 강영돈 제주도 관광국장은 “매력적이고 우수한 관광기념품 발굴은 제주의 관광산업의 경쟁력 강화와 연결된다”라며 “이번 공모전에서 선정된 작품의 상품개발 및 홍보 지원을 통해 제주를 대표할 차세대 관광기념품 개발에 힘쓸 예정”이라고 밝혔다. 고경호 기자  kkh@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 고경호 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 스마트한 관제로 도민·관광객 지킨다 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 율촌화학 상승, 美 얼티엄셀즈와 공급계약 체결 [급등주]네이처셀 주가, 품목 허가 보류·공매도 보고 의무 강화 속 강세 [급등주]유니셈 주가, 플라즈마 스크러버 통한 매출 성장에 강세 [급등주] 삼성출판사 상승, 카카오모빌리티-더핑크퐁컴퍼니 MOU 체결 [급등주]가온칩스 주가 18% 상승, 상성전자 ARM 인수·합병 기대감 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 2022-10-04 10:41 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 스마트한 관제로 도민·관광객 지킨다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 스마트한 관제로 도민·관광객 지킨다 기자명 문서현 기자 입력 2020.06.03 11:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 생활안전사각지대·어린이보호구역등에 스마트관제 3,000여대 추가 도입 (제주=국제뉴스) 문서현 기자 = 제주도가 스마트 선별관제시스템을 영상분석기술을 이용해 위기에 처한 도민과 관광객을 지킨다. 3일 제주도에 따르면 CCTV영상을 선별 표출하는 인공지능을 활용한 스마트 선별관제시스템을 도입해 신속한 위기상황에 대응하고 육안 관제의 한계를 극복하는 한편 관제요원들의 효율성을 확보하고 있다고 밝혔다. 지난해에는 읍면동 생활안전사각지대 방범용 CCTV 1,000대, 어린이 안전을 위하여 설치된 초등학교 CCTV 1,000여 대에 스마트 선별관제시스템을 적용해 운영해 왔다. 올해에는 생활안전사각지대, 어린이보호구역 등 제주도민과 어린이, 제주를 방문하는 관광객의 안전을 위하여 3,000여 대의 CCTV에 스마트 선별관제시스템을 적용하여 운영할 계획이다. 향후 제주CCTV관제센터에서 관리하고 있는 모든 CCTV에 대해서도 스마트 선별관제를 점차적으로 확대 해 나갈 계획이다. 제주도 이중환 도민안전실장은 “매년 CCTV 설치가 증가하고 있는 만큼 인공지능 이벤트 분석 시스템인 스마트 선별관제시스템 마련이 필요하다”며 “이상 징후가 있는 상황을 감지해 효율적인 모니터링과 신속한 조치를 함으로써 각종 사건·사고의 효율적 예방과 신속한 대응에 도움이 될 것”이라고 밝혔다. 키워드 #제주도 #생활안전사각지대 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 스타벅스 서머 캐리백 발암성 물질 '니켈'도 검출 충주 시민단체 연대회의, "정부 공공의료 기관 확충과 지역의료 격차 해소" 촉구 양산도시철도 건설사업 행정 인·허가 완료, '청신호' 이보람 결혼설 해명 "기아선수와 소개팅? 날조 곤란" 시립서울청소년센터, 자아탐색 프로그램 ‘For Rest’진행 천안시, 메타버스 권위자 최재붕 교수 초빙 특강 실시 최신뉴스 스타벅스 서머 캐리백 발암성 물질 '니켈'도 검출 충주 시민단체 연대회의, "정부 공공의료 기관 확충과 지역의료 격차 해소" 촉구 양산도시철도 건설사업 행정 인·허가 완료, '청신호' 이보람 결혼설 해명 "기아선수와 소개팅? 날조 곤란" 시립서울청소년센터, 자아탐색 프로그램 ‘For Rest’진행 포토뉴스 스타벅스 서머 캐리백 발암성 물질 '니켈'도 검출 충주 시민단체 연대회의, "정부 공공의료 기관 확충과 지역의료 격차 해소" 촉구 양산도시철도 건설사업 행정 인·허가 완료, '청신호' 이보람 결혼설 해명 "기아선수와 소개팅? 날조 곤란" 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 6 안양 호계동 아파트 공사장서 불…인명피해 없어 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 스마트한 관제로 도민·관광객을 지킨다 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-04 10:31 (화) 실시간 뉴스 교황, 푸틴 핵 위협에 "전쟁 멈출 것" 경고 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 문송희, ‘사랑나눔자선콘서트’ 화려한 오프닝 공연 예고 아이피샵, 2022 광주국제아트페어 참여 김해 민간 장기 임대아파트 '용두지구 성원상떼빌' 분양 코요태 빽가, 지석진과 한솥밥 먹는다...컴백 일정은? [이만수의 야구 이야기] 꿈에 그리던 동남아시아 야구 대회 개최 오에스피 공모주 청약일정·수요예측·상장일은? '공모가 8400원 확정' HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 291호(2022-09) 작은 승리 거둔 이준석 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 스마트한 관제로 도민·관광객을 지킨다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 스마트한 관제로 도민·관광객을 지킨다 기자명 김연화 기자 입력 2020.06.03 17:35 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 생활안전사각지대·어린이보호구역등에 스마트관제 3,000여대 추가 도입 제주특별자치도청사 전경 [시사매거진/제주=김연화 기자] 제주특별자치도는 스마트 선별관제시스템 영상분석기술을 이용해 사람·차량 등 관제대상에 따라 움직이며 CCTV영상을 선별 표출하는 인공지능을 활용한 스마트 선별관제시스템을 도입하여 신속한 위기상황에 대응하고 육안 관제의 한계를 극복하는 한편 관제요원들의 효율성을 확보하고 있다. 지난해에는 읍면동 생활안전사각지대 방범용 CCTV 1,000대, 어린이 안전을 위하여 설치된 초등학교 CCTV 1,000여 대에 스마트 선별관제시스템을 적용하여 운영해 왔다. 올해에는 생활안전사각지대, 어린이보호구역 등 제주도민과 어린이, 제주를 방문하는 관광객의 안전을 위하여 3,000여 대의 CCTV에 스마트 선별관제시스템을 적용하여 운영할 계획이며, 향후 제주CCTV관제센터에서 관리하고 있는 모든 CCTV에 대해서도 스마트 선별관제를 점차적으로 확대 해 나갈 계획이다. 제주특별자치도 이중환 도민안전실장은 “매년 CCTV 설치가 증가하고 있는 만큼 인공지능 이벤트 분석 시스템인 스마트 선별관제시스템 마련이 필요하다”며 “이상 징후가 있는 상황을 감지해 효율적인 모니터링과 신속한 조치를 함으로써 각종 사건·사고의 효율적 예방과 신속한 대응에 도움이 될 것”이라고 밝혔다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 상생소비복권 '당첨자발표일' 제외업종 공개 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 주요기사 정부조직 개편안 조만간 발표...여가부 폐지 중점 논의 [오늘날씨] 일본기상청 '첫눈·상현 반월' 서울날씨 '19도 기온뚝' 비소식, 2022년 단풍시기·명소 정진석 "국정동력 확보 위해 정부 조직개편 논의해야" 尹정부 첫 국정감사 4일 개막...여야 격돌 전망 여야, 감사원 '文 서면조사' 요구 놓고 공방 격화 [속보]러시아, 우크라이나 전쟁 중 핵 사용할까 '서방 경계심 강화' 최신뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 포토뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 인기뉴스 1 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 2 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? 3 '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 4 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 5 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 6 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 7 상생소비복권 '당첨자발표일' 제외업종 공개 8 애플 아이폰14·PRO 통신 3사 사전예약 혜택·가격·출시일·색상 화제 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 11년만 조직 축소 개편안 발표…관광국 폐지 두고 도의회 '우려' - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 11년만 조직 축소 개편안 발표…관광국 폐지 두고 도의회 '우려' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 헤드라인4 제주도, 11년만 조직 축소 개편안 발표…관광국 폐지 두고 도의회 '우려' 현대성 기자 승인 2020.06.19 20:03 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 11년 만에 조직 및 정원을 감축하는 조직개편안을 발표했다. 특히 이 조직 개편안은 '관광 1번지' 제주의 위상을 높이기 위해 4년 전 신설했던 관광국을 문화체육대외협력국으로 흡수하는 내용을 포함하고 있어 반발 여론이 일고 있다. 제주도는 19일 '제주특별자치도 행정기구 설치 및 정원 조례 일부개정조례안'을 입법예고했다. 이 조례 개정안은 현행 제주도 행정조직 15개 국(局) 60개 과(課)를 13개 국, 58개 과로 축소하는 내용을 골자로 하고 있다. 제주시는 1개 과, 서귀포시는 1개 국 2개 과를 감축하는 내용이 포함됐다. 이에 따라 공무원 정원도 6164명에서 6140명으로 24명 감축된다. 주요 내용을 보면 관광국이 문화체육대회협력국과 통합돼 '문화관광국'으로 변경된다. 제주도는 관광국 폐지에 대한 우려를 씻기 위해 향후 관광공사, 관광협회 등을 연계해 총괄하는 '관광청' 신설을 단계적으로 검토한다. 또 도민안전실과 교통항공국이 '안전교통실'로 통합되며 국 단위 임시 기구로 운영하던 특별자치제도추진단이 특별자치행정국 산하 특별자치분권과로 편입된다. 정무부지사 산하에 있던 공보실은 도지사 산하 대변인실로 개편되며, 행정부지사 직속 기구였던 도시디자인담당관은 그간 컨트롤타워 역할을 제대로 하지 못 했다는 비판을 피하지 못 한 채 도시건설국 산하 도시디자인과로 흡수된다. 이 밖에 4·3지원과와 평화대외협력과가 통합해 4·3평화과로 확대 개편된다. 일자리경제통상국 산하 일자리과와 경제정책과과 일자리경제과로 통합되고 관광국 산하 투자유치과가 통상물류과와 통합돼 투자통상과로 변모한다. 또 해양산업과와 해녀문화유산과는 해양해녀문화과로 통합돼 해녀 육성은 물론 청정 해양과 해녀문화의 가치 창출을 전담한다. 제주도는 도민 건강을 수호하고 감염병 위기 대응 역량을 강화하기 위해 보건건강위생과에는 전염병 예방 전담팀 및 역학조사 전문 인력을 보강할 계획이다. 이에 더해 도민에게 양질의 고용서비스를 제공하기 위해 고용센터와 서귀포지소를 신설, 취업알선과 서귀포시민 편의를 도모한다. 행정시에서 대행해 오던 읍면동 감사업무도 감사위원회 산하 읍면동감사팀이 수행하게 된다. 이번 조직개편안은 오는 25일까지 의견수렴 과정을 거쳐 오는 7월 도의회 심의를 받을 예정이다 현대성 제주도 기획조정실장은 “코로나19로 인한 경기 위축 및 재정여건 악화 등 비상체계에 따른 과감한 조직 축소를 통해 선제적 구조 개혁으로 도민들에게 신뢰를 얻는 작지만 강한 조직을 만들기 위해 민선7기 후반기 조직개편을 실시하게 됐다”고 말했다. 한편 제주도의회는 이와 같은 조직 개편안에 대해 지속적으로 반대 목소리를 내고 있다. 19일 열린 제383회 제1차 정례회 예산결산특별위원회 회의에서도 의원들은 관광국 폐지가 관광 산업 컨트롤타워를 약화시킬 수 있다고 우려했다. 이날 이승아 의원(더불어민주당·제주시 오라동)은 "제주도가 4년 전 전국에서 선도적으로 관광국을 신설했고 서울, 부산 등 다른 지자체에서 따라하고 있다"며 "그런데 제주도가 관광국을 문화대외협력국과 통합하려 한다. 거꾸로 가고 있다"고 제주도의 관광국 폐지 방안을 지적했다. 박호형 의원(더불어민주당·제주시 일도2동갑)도 "관광산업을 강화하는 것이 제주도의 지역경제를 살리는 일인데, 관광국을 폐지하는 방안이 우려스럽다"며 "주력사업인 관광을 포기해 버리면 제주도가 무엇으로 먹고 살아야 할 지 의문"이라고 피력했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 관광국 폐지·문화예술 행사 예산 삭감 연일 도마 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:10 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도 관광국 폐지·문화예술 행사 예산 삭감 연일 도마 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 도의회 제주도 관광국 폐지·문화예술 행사 예산 삭감 연일 도마 현대성 기자 승인 2020.06.19 16:05 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 관광국을 문화체육대회협력국에 흡수시키는 제주특별자치도의 하반기 조직개편안이 연일 제주도의회에서 도마에 올랐다. 제주특별자치도의회 예산결산특별위원회(위원장 송영훈, 더불어민주당, 서귀포시 남원읍)는 19일 제383회 정례회를 속개하고 2019 회계연도 결산 승인의 건 등과 예비비 지출 승인의 건 등을 심사했다. 이날 이승아 의원(더불어민주당·제주시 오라동)은 "제주도가 4년 전 전국에서 선도적으로 관광국을 신설했고 서울, 부산 등 다른 지자체에서 따라하고 있다"며 "그런데 제주도가 관광국을 문화대외협력국과 통합하려 한다. 거꾸로 가고 있다"고 제주도의 관광국 폐지 방안을 지적했다. 박호형 의원(더불어민주당·제주시 일도2동갑)도 "관광산업을 강화하는 것이 제주도의 지역경제를 살리는 일인데, 관광국을 폐지하는 방안이 우려스럽다"며 "주력사업인 관광을 포기해 버리면 제주도가 무엇으로 먹고 살아야 할 지 의문"이라고 피력했다. 이날 회의에서는 제주도가 제2차 추가경정예산안 재원 마련을 위해 하반기 행사성 예산을 사실상 전면 삭감한 것을 두고도 문화예술인 지원 방안이 필요하다는 목소리가 나왔다. 양영식 의원(더불어민주당·제주시 연동갑)은 "문화예술인들과 정책 간담회를 진행했는데, 도정에서 전혀 관계자와 소통을 하지 않는다는 지적이 있었다"며 "행정이 일방적으로 예산을 삭감해 도민들을 절망에 빠뜨리고 있다"고 지적했다. 이상봉 의원(더불어민주당·제주시 노형동을)도 "문화예술 행사 예산도 나름대로 도내에서 역할을 하고 있는 예산인데, 강 대 강으로 행사 예산을 삭감하는 것은 슬기로운 방법이 아니"라며 "일상 속 위기대응은 필요하지만 모든 것을 삭감하면서 도민 사회를 위축시킬 필요는 없지 않느냐"고 지적했다. 이와 관련, 최승현 제주도 행정부지사는 "지출 구조조정과 조직 개편과 관련해 제시된 다양한 의견을 수렴하고 검토하겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 관련기사 세출 구조조정 놓고 도-의회 갈등 심화 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>제주도, 관광국·해녀문화유산과 그대로 둔다…조직개편 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광국·해녀문화유산과 그대로 둔다…조직개편 등록 2020.06.30 10:45:13 작게 크게 [제주=뉴시스] 우장호 기자 = 제주도가 해양문화유산과를 축소하는 조직개편안을 입법 예고한 가운데 26일 오전 제주도청 앞에서 해녀들로 구성된 어촌계연합회가 관련 부서 존치를 요구하는 집회를 열고 있다. 2020.06.26. woo1223@newsis.com[제주=뉴시스] 강정만 기자 = 제주특별자치도가 조직을 개편하며 통폐합하기로 했던 관광국과 해녀문화유산과를 그대로 유지하기로 했다. 한발 더 나아가 신종 코로나 바이러스 감염증(코로나19) 재난으로 초래된 관광 분야의 질적 성장과 위기 극복을 위해 관광청 신설도 검토하기로 했다. 도내 관광관련 단체들의 반발과 최근 해녀들의 집회 등을 통해 드러난 의견을 반영한 것으로 보인다. 강만관 도 정책기획관은 30일 조직개편 확정안을 발표하면서 "입법예고 후 도청 내부와 도민 등 각계각층의 의견을 반영해 이같이 결정했다"고 밝혔다. 이에 따라 제주도는 15실국 60과에서 14실국 59과로 개편된다. 공무원 정원은 6164명에서 6144명으로 20명 감축된다. 도 1국1과, 제주시 1과, 서귀포시에서는 1국2과가 줄어든다. 도는 이 조직개편안을 7월2일 제주도의회에 제출한다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 43분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 롯데케미칼, 일진머티리얼즈 주식매매계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>`위기를 기회로` 만든 제주도…`코로나 시대` 맞춤 관광지 - 매일신문 2022-10-11 (화) 지면보기 기사제보 로그인 회원가입 최신기사 오피니언 정치 경제 사회 국제 문화 스포츠 연예 라이프 포토·영상 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 '위기를 기회로' 만든 제주도…'코로나 시대' 맞춤 관광지 전종훈 기자 apple@imaeil.com 매일신문 입력 2020-06-28 14:48:29 수정 2020-06-29 11:38:05 0 가 가 페이스북 트위터 카카오스토리 밴드 네이버블로그 카카오톡 라인 URL복사 '카멜리아힐' 탁 트인 야외 정원…4·3평화공원 아픈 역사도 관광지로 승화안전, 야외, 가족단위…해외 관광 단절에 여행객 늘어 코로나19 여파로 국외관광이 단절되면서 제주를 찾는 사람들이 늘고 있다. 제주의 탁 트인 해변가에서 관광을 즐기는 사람들. 전종훈 기자 코로나19로 국내외 여행업계가 얼어붙은 가운데 유일하게 관광업이 기지개를 켜는 곳이 바로 제주도다. 해외 관광이 단절되고 코로나19 확산이 타 지역에 비해 미미한 덕분에 관광객이 몰린다. 제주는 모든 관광객을 대상으로 철저한 방역수칙 준수를 요구하며, 안전한 관광지 조성에 힘쓰고 있다. 그들의 노력과 행동은 최악의 관광산업 위기를 오히려 기회로 만들고 있다.◆코로나 속 여행트렌드 'SAFETY'한국관광공사(사장 안영배)는 SKT의 T맵 교통데이터와 KT의 빅데이터를 활용해 코로나19 국내 발생시점인 올해 1월 20일부터 지난달 30일까지 총 21주간 국내 관광객의 이동 패턴 및 행동 변화를 종합적으로 분석한 결과를 최근 발표했다.이에 따르면 전반적인 관광활동에 '안전'이 최우선으로 고려됐고, 전국적으로 '집 근처 자연친화적 공간에서 가족과 함께 안전하게 야외 활동'을 선호하는 경향을 보였다. 또 '생활권역' 안에서 '일상'과 연계된 관광을 즐기는 이른바 '생활관광'도 뚜렷하게 나타났다.관광공사는 이같은 관광 활동 트렌드를 'S·A·F·E·T·Y(안전)'로 명명했다. ▷근거리(Short distance) ▷야외활동(Activity) ▷가족단위(Family) ▷자연친화(Eco-area) ▷인기 관광지(Tourist site) ▷관광수요 회복 조짐(Yet..)으로 정리했다. 마지막 Y에 해당하는 관광수요 회복은 관광에 대한 욕구는 여전히 존재하지만 온전한 관광을 위한 수요 회복까지는 아직 시간이 필요하다고 설명했다. 아름다운 꽃을 보여 산책을 즐길 수 있는 제주 카멜리아힐은 코로나19 속에서도 관광객의 발길이 이어지고 있다. 전종훈 기자 ◆동양 최대 동백 수목원 '카멜리아힐'관광공사에서 국내 관광 패턴을 분석한 결과와 맞물려 제주에서는 야외 관광지가 큰 인기를 끌고 있다. 그 중심에는 '카멜리아힐'이 있다. 탁 트인 정원에서 싱그러운 꽃내음을 맡으며 자신의 인생샷을 남길 수 있는 곳이다.이곳은 30년쯤 된 동양 최대 동백 수목원이다. 세계 80개국 500여 품종 6천여 그루가 울창한 숲을 이룬다. 동백은 가을쯤부터 피기 시작하기 때문에 지금 수목원에는 푸른 잎의 동백나무를 배경으로 수국 등 제주 자생식물 250여 종이 각기 다른 모양의 꽃을 뽐낸다.특히 6월은 '수국천하'다. 몽실몽실 새신부 부케 다발처럼 생긴 아름다운 수국을 배경으로 연인과 가족, 친구 등이 인생의 멋진 한 장면을 남기는 모습을 볼 수 있다. 관광객들이 카멜리아힐 내부의 온실에 가득 핀 꽃들을 관람하고 있다. 전종훈 기자 카멜리아힐은 테마별로 정원이 잘 정돈돼 있고 계절별로 피는 꽃에 대한 안내까지 잘 돼 있다. 관광객 동선을 고려한 안내표지판과 지명판, 동선표지판 등도 돋보인다.경북 청송군은 현재 국내 최대 규모의 백일홍 정원을 조성 중이다. 올해 9월 말쯤 백일홍의 만개에 맞춰 이곳을 찾을 관광객 편의를 위해 많은 고민이 필요할 것이다. 제주4·3평화공원 내 전시실. 영상을 보는 관광객들이 양팔 간격을 유지하고 있다. 전종훈 기자 제주 4·3사건 생존자 모습과 육성을 들을 수 있는 전시실. 전종훈 기자 ◆역사가 관광 중심에 서다…제주 4·3평화공원제주 4·3사건은 1947년 경찰 발포 사건을 기점으로 정부가 이념이 다른 무리를 소탕한다는 명분으로 무고한 주민들을 학살하고 그들의 삶을 송두리째 빼앗은 역사다. 제주도는 이런 아픈 상처를 기념하기 위해 재단을 만들고 기념관과 위령탑 등이 있는 4·3평화공원을 건립했다.관광객들은 공원을 산책하며 4·3사건이란 역사를 되새겼다. 위령탑에서는 묵념을 하거나 머리를 숙이며 그들의 순고한 희생을 위로하기도 했다.4·3평화공원에서 유일하게 실내공간인 전시실은 코로나 방역수칙을 철저히 지키고 있었다. 별도의 개관 시간을 정한 뒤 소독과 발열검사, 인적 사항을 확인하며 입장객 수를 제한했다. 관람자들은 해설사 지시에 따라 양팔 간격 거리를 유지하며 관람했다. 이곳은 4·3사건 사료가 시대 흐름 순으로 전시돼 있다. 전시실 곳곳에서 4·3사건으로 희생된 제주도민의 아픔이 묻어나 관람하는 내내 숙연한 마음이 들 정도다. 제주 4․3사건 희생자들의 사진으로 꾸며진 전시실 복도. 전종훈 기자 제주도민은 역사적 아픈 상처를 공감하고, 이를 모두에게 알리기 위해 부단한 노력을 했고 그 결과 '4·3희생자 추념일'이 국가기념일로 지정됐다. 이와 비교하면 항일의병 활동이 가장 활발했던 경북은 현재 기념일조차 챙기지 못할 정도로 역사의 외면을 거듭하고 있다. 올해 열린 4·3사건 추념일에서 문재인 대통령은 "4·3은 더 나은 세상을 향해 가는 미래 세대의 인권과 생명, 평화와 통합의 나침반"이라고 강조하기도 했다.◆한담해안산책로와 한옥펜션코로나 속 관광의 최우선 키워드는 야외다. 푸른 빛 해안가에 아름다운 카페가 있는 곳을 찾는다면 한담해안산책로를 추천한다. 코로나19로 실내보다는 야외 관광지가 큰 인기를 끌고 있다. 특히 아름다운 카페가 즐비한 제주 한담해안산책로는 여행객들의 워너비 관광지 중 하나다. 전종훈 기자 관광객들이 투명 카약을 체험하며 제주바다를 즐기고 있다. 전종훈 기자 제주에서 꽤 유명세를 떨치는 카페들이 즐비한 곳이자 다양한 수상스포츠를 즐길 수 있는 곳이 바로 한담해안산책로이다. 대부분 실내외를 모두 카페 공간으로 활용하고 있으며 반려견을 위한 공간도 마련돼 있다. 곳곳에 사진을 찍도록 벤치와 조형물, 조명 등을 비치해 '음료+인생샷'이 패키지인 곳이 많다.요즘 제주도는 푸른 바닷가를 등진 숲 속 숙박시설이 인기다. 코로나 여파에 따른 것이기도 하지만 가족단위로 즐기는 관광객이 주를 이루기 때문이다. 특히 옛 가옥을 재현하거나 조금만 손 본 뒤 숙박시설로 변신한 곳이 많다.그 중 가장 주목받고 있는 곳이 바로 제주 솔 한옥펜션이다. 으리으리한 기와에 새파란 잔디밭, 아이들이 즐겁게 놀 수 있는 놀이시설까지 갖췄다. 숯불을 피워 바비큐도 즐길 수 있고, 잔잔한 클래식을 들으며 해먹에서 여유를 즐길 수 있다.가격 또한 해안가보다 저렴한 편이다. 대부분 농어촌민박으로 등록돼 있어서 성수기와 비수기 모두 가격이 일정하고, 해안가의 비슷한 시설에 비해 절반 가격에 숙박할 수 있다. 제주 한옥펜션은 가족단위 나들이객에게 큰 인기를 얻고 있다. 전종훈 기자 네이버TV구독 + 유튜브구독 + 최신 기사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 많이 본 뉴스 일간 주간 월간 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 [영상] "삼성전자 입주 키이우 건물 러 미사일 폭격 피해"…우크라 정부 "폭발로 최소 8명 사망" 北미사일 발사장에 나란히 선 김정은 부부…귀막고 눈 찡긋 수서~포항 KTX 운행 연내 성사되나…원희룡 "적극 검토할 것" 새마을운동중앙회장 맡아 다시 현역으로 돌아온 곽대훈 전 의원 푸틴의 보복?…우크라 키이우 70일만 미사일 공습 "사상자 발생" [대구 시월] "더는 쌀을 구할 방법이 없다"…그해 10월은 민생고가 빚어낸 '폭풍' 구미 원룸서 40대 여성 숨진 채 발견...살해 용의자 현장서 긴급체포 경주시립미술관 예정 부지 외지고 유동인구 적어…'유령미술관' 우려 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지더보기 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" 칠곡경북대병원 간호사 퇴사 70% '입사 1년차' 구미 年 4천억 매출 기업, 화마로 '셧다운'…지역경제 타격 불가피 대구 'MBC네거리' 새명칭 선정 난항…연내에 다시 논의하기로 홍준표 시장 "대구 미래 산업 될 신수종산업 유치, 반도체 대기업과 협상 중" 등산하다 굴렀다던 아내…알고보니 남편에게 맞아 숨졌다 대구 아파트 전세값 '뚝뚝'…하락폭 비수도권 광역시 '최대' 홍준표, 尹·김건희 풍자 '윤석열차' 두고 "표현의 자유" '尹 식사하느라 英여왕 조문 못했나' 질문에 박진 외교장관, 적극 부인 못해더보기 대전 현대 프리미엄아울렛 화재…지하주차장서 전기차 폭발 추정 호텔수성 또 소송?…이번엔 주차장 갈등, 수성구청 "소송 불사" 전국 어디든 '1시간 50분대'…성주군, 6방향 사통팔달 도시로 태풍 '힌남노' 폭우, 주택 앞마당에 묻어둔 현금 항아리 깨져 "30cm 처마 값으로 45억원 내놔라니"…두류동 재개발 '공중 알박기' 논란 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 대구 수성못 주변 주상복합 취소 소송, 수성구청 최종 승소 국내 대표 방위산업체 'LIG넥스원·한화시스템' 구미에 4천억 푼다 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" 13호 태풍 므르복 日 남쪽 아닌 멀리 태평양서 발생 임박 "14호 난마돌 발생 여부 주목"더보기 이슈&amp;뉴스 美 출장은 이재명 수사 목적 주장에 한동훈 "내부 고발 하나" 민주당 "이재명 두산그룹 후원 유치, 칭찬할 일" '포항 참사' 숨진 중학생, 市보험금 못 받아 논란 초등학생 청소 밀대로 때린 교사…3천만원대 합의에도 실형 손톱 10개 합친 길이만 13m…25년째 안 자른 사연은 댓글 많은 뉴스 10 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지 5 안철수 "유승민, 당대표 출마 힘들 것…나는 尹 정부 연대보증인" 5 나경원, 이재명 겨냥 "한미일 훈련이 국방참사라니…北에 당하란 말인가" 5 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 3 "경북지역 노후 저수지 3200곳, 언제 터질지 모른다" 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 회사소개 광고안내 구독신청 고충처리인운영규정 청소년보호정책 개인정보처리방침 사업제휴 편집윤리규정 윤리자율규제지침 윤리실천요강 본사 : 대구광역시 중구 서성로20 (계산 2가 71번지) 매일신문사 (우 41933) : TEL : (053) 255-5001~7 경북본사 : 경북 안동시 풍천면 수호로 63, 3층(우 36759) : TEL : (054) 855-1700 서울지사 : 서울특별시 중구 세종대로 124 (태평로 1가 25) 한국프레스센터 1801호 (우 04520) : TEL(02) 733-0755~6 인터넷신문등록번호 : 대구,아00201 등록일자 : 2016.11.28 발행인 : 정창룡, 편집인 : 정창룡 Copyright ⓒ MAEIL, All right reserved 댓글 삭제 Close 댓글삭제</t>
+  </si>
+  <si>
+    <t>제주도, 폭설·태풍때 관광객 '터미널 노숙' 막는다 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도, 폭설·태풍때 관광객 '터미널 노숙' 막는다 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도, 폭설·태풍때 관광객 '터미널 노숙' 막는다 송고시간2020-06-25 14:18 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 고성식 기자 기자 페이지 체류객 지원 시스템 2022년까지 마련…대기 없이 항공편 배정 등 제주공항서 종이상자 펴고 '노숙' [연합뉴스 자료 사진] (제주=연합뉴스) 고성식 기자 = 2016년 1월 제주에 32년 만에 찾아온 폭설이 내리자 제주국제공항이 마비됐다. 활주로에 치워도 치워도 쌓이는 눈과 결빙으로 항공기가 무더기 결항하면서 공항 내 체류객이 8만명에 육박해 대혼란이 빚어졌다. 2016년 폭설은 이후 제주도와 한국공항공사 제주본부 등이 태풍과 폭설 등 자연재해 발생 시 매뉴얼을 만들어 대처하는 계기가 됐다. 광고 제주도는 이런 자연재해 발생 시 정보통신 기술(IT)을 이용해 제주공항 체류객 지원과 체류객 해소를 위한 방안을 마련키로 했다. 제주도는 '재난 및 항공 체류객 지원 대응 Safe Space in Jeju'(제주 안전지대·이하 체류객 대응) 구축을 위해 연구개발에 나선다고 25일 밝혔다. 체류객 대응 연구는 행정안전부가 주관하는 '지역 맞춤형 재난 안전 문제 해결 연구·개발 지원사업' 공모에 선정돼 이달부터 2022년까지 3년간 이뤄진다. 연구진은 자연재해가 발생할 경우 공항 체류객 사태에 대한 예측과 지원을 위한 통합 관리시스템을 구축하고 실제로 검증에 들어간다. 지쳐 쓰러진 제주공항 체류객 [연합뉴스 자료 사진] 도는 국토교통부 제주지방항공청과 한국공항공사 제주지역본부 등 7개 유관기관 관계자 등으로 구성한 자문위원회를 구성해 각 기관간 협업 방안을 공유할 예정이다. 도 관계자는 "체류객들은 태풍이나 폭설 사태가 해소된 직후 항공편을 구하는 것을 가장 우선으로 원하기 때문에 기상 정보와 함께 항공편 운항 예상 정보 및 대기 없이 항공 좌석을 배정받는 방안 등에 대해 연구가 이뤄질 것으로 보인다"고 말했다. 또 이번 연구에서 공항 내 체류를 하지 않게 된다면 주변 교통편과 숙박을 편리하게 이용할 수 있는 방안이 마련된다. 제주공항 활주로에 멈춰선 항공기들 [연합뉴스 자료 사진] koss@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/06/25 14:18 송고 #폭설 #체류객 #방안 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도 생태관광지원센터, 생태관광 전문인력 양성교육 진행 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 생태관광지원센터, 생태관광 전문인력 양성교육 진행 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 제주도 생태관광지원센터, 생태관광 전문인력 양성교육 진행 기자명 홍석형 기자 입력 2020.06.29 13:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도 생태관광지원센터(센터장 고제량)는 생태관광 운영자의 역량 강화를 통해 지속가능한 제주관광의 발전을 위한 생태관광 전문인력 양성교육을 진행한다고 29일 밝혔다.2016년 제주생태관광지원센터가 설립된 이후 매년 대상을 달리하며 생태관광 전문인력양성교육이 진행됨에 따라 교육생 수가 증가하고, 이들을 대상으로 더 다양하고 심화된 교육의 필요성이 제기돼 왔다.이를 위해 제주특별자치도 생태관광지원센터는 관련기관, 생태관광 사업경험자, 시민단체 등 다양하게 강사진을 구성해 이론교육과 토론 형식으로 교육을 진행하며, 현장실습도 있을 예정이다.또, 제주특별자치도 생태관광지원센터는 교육이 끝난 후에도 생태관광 관련 세미나, 워크숍, 시범프로그램 등에 교육이수자들을 지속적으로 참여시킴으로써 실질적인 제주 생태관광을 이끌 지도자를 양성함은 물론 지역사회의 활성화와 네트워크를 형성할 인적자원을 확보할 계획이다.양성교육은 이론 및 실기로 나눠 총 33시간 진행되며 80% 이상 교육이수자에게는 수료증을 수여하게 된다.이론교육은 7월 7일부터 9일까지 3일간 교육카페 자람(제주시 고산동산5길 22, 3층)에서 진행하며, 실기는 7월 29일부터 31일까지 2박3일간 타 지역 답사로 진행하게 된다.교육대상은 제주특별자치도 생태관광지원센터에서 진행했던 '대정-남원 생태관광프로그램 개발', '오름 생태관광프로그램 개발' 등에 포함되는 지역주민 등 (대정읍, 남원읍, 안덕면, 서귀포시 동지역, 한경면, 애월읍 등)으로 25명을 선착순으로 모집하고 있다.접수는 6월 29일부터 7월 5일까지 (사)제주생태관광협회 홈페이지로 접수하면 되고, 참가비는 5만원이다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[fn패트롤] 제주도 조직개편안 후폭풍…관광업계에 해녀까지 반발 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; [fn패트롤] 제주도 조직개편안 후폭풍…관광업계에 해녀까지 반발 파이낸셜뉴스입력 2020.06.28 14:00수정 2020.06.28 14:00 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 코로나19 재정위기 극복 원희룡표 조직 개편…2국·2과 감축 추진 제주지역 해녀 1500명이 지난 26일 제주도청 앞에서 해녀 전담부서 폐지에 반발하며 대규모 집회를 가졌다. 【제주=좌승훈 기자】 제주도 조직개편안에 대한 후폭풍이 거세다. 코로나19에 따른 재정 위기 속에 내놓은 조직개편안은 선택과 집중을 통한 조직 슬림화에 두고 있다. 이에 따라 도청은 현행 15국·60과에서 13국·58과로 2국 2과를 감축한다. 행정시 중 제주시는 1과를, 서귀포시는 1국·2과를 줄이기로 했다. 도와 행정시의 조직과 정원을 감축하는 조직개편은 2009년 이래 11년 만이다. 도는 공무원 정원도 6164명에서 6140명으로 24명을 감축됨으로써, 연간 20억원의 인건비가 절감될 것으로 예상하고 있다. ■ 관광국 축소·통합…“20억원 아끼자고 제주관광 포기하나” 25일까지 의견수렴 과정을 거친 조직개편안은 오는 7월 제주도의회 심의를 받을 예정이다. 하지만 이를 두고 관광업계 뿐만 아니라 해녀까지 반발하고 나섰다. 대국(大局)·대과(大課) 체제를 내건 도가 기존 관광국과 문화체육대외협력국을 ‘문화관광국’으로 통합하고, 해양수산국 4개과 중 하나인 해녀문화유산과를 해양산업과와 통합해 해양해녀문화과로 개편하는 안을 내놨기 때문이다. 제주도관광협회를 비롯해 업계 종사자 100여명은 지난 22일 기자회견을 통해 “사드(THADD,고고도미사일방어체계) 배치에 따른 중국의 금한령(禁韓令)과 일본의 경제보복 조치, 게다가 코로나19 사태 장기화로 관광업계가 파탄 위기에 놓였는데, 연간 20억원을 아끼자며 관광국을 축소·통합하는 건 지역 내 총생산 73%를 차지하는 관광을 포기하는 처사”라고 날을 세웠다. 조직개편을 통해 코로나19 위기를 극복한다면서, 하필이면 피해가 가장 큰 관광분야에 ‘칼질’을 하느냐는 것이다. 제주도의회 문화관광체육위원회도 “관광국 축소·통합 조직개편 계획은 제주관광을 포기하는 처사”라며 반대하고 나섰다. ■ “제주해녀 전담 부서 축소·통합이 유네스코 등재 결과냐” 제주도내 102개 어촌계로 구성된 어촌계장연합회와 해녀 1500명도 26일 오전 10시 제주도청 앞에서 집회를 열고 해녀문화유산과 통·폐합 백지화를 촉구했다. 이들은 “2016년 11월 유네스코 인류무형문화유산 지정 당시 원희룡 지사가 77억명 세계인에게 해녀문화 지원을 공언한 바 있다”며 “제주해녀 희소가치를 보전하기 위한 조직을 확대하지는 못할망정, 만든 지 3년밖에 안된 직제를 사업도 제대로 펼쳐보지 못한 채 통·폐합한다는 것은 어떠한 논리로도 합리화할 수 없다”고 주장했다 조직개편안에 대한 우려의 목소리는 공직사회 내부에도 있다. 사전 의견수렴 절차 없이 조직개편 발표 이틀 전에야 통보를 받았으며, 부서가 통·폐합된다면 사업의 전문성이나 집중도가 떨어질 것이라는 지적이다. 도는 이번 조직개편안에 시각 차이가 있을 수 있다“는 입장이지만, 입법예고 기간 중 잇단 반발과 함께 도의회도 반대 견해를 보이고 있어 심의과정이 순탄치 않을 전망이다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회 어린이재단에 후원금 전달 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광협회 어린이재단에 후원금 전달 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 제주도관광협회 어린이재단에 후원금 전달 정용기 기자 승인 2020.06.30 17:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도관광협회(협회장 부동석) 사랑나눔봉사단은 지난달 29일 초록우산 어린이재단 제주지역본부를 방문해 도내 인재양성 아동들을 위한 장학금으로 써달라며 300만원의 후원금을 전달했다. 부동석 회장은 “임직원들과 함께 뜻을 모아 아이들의 미래를 지원할 수 있는 의미있는 후원을 할 수 있어 기쁘다”고 밝혔다.정용기 기자  brave@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>강남구 코로나 확진자, 제주도에서 패키지 관광 - 조선일보</t>
+  </si>
+  <si>
+    <t>"책임 떠넘기기"…제주도 관광국 축소통합 잇단 반발 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 "책임 떠넘기기"…제주도 관광국 축소통합 잇단 반발 제주 관광업계 기자회견 "현행 유지해야" 도의회 문화관광위도 '반대' 입장문 발표 (제주=뉴스1) 오미란 기자					| 2020-06-22 11:03 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도관광협회와 제주관광학회 등 도내 관광업계 관계자 100여 명이 22일 오전 제주웰컴센터 웰컴홀에서 기자회견을 열고 제주도를 향해 기존 관광국 조직을 그대로 유지할 것을 촉구하고 있다.2020.6.22/뉴스1 제주도 관광국이 신종 코로나바이러스 감염증(코로나19) 여파로 4년 만에 다른 부서와 축소통합되자 도내 관광업계가 잇따라 반발하고 있다.제주도관광협회와 제주관광학회 등 도내 관광업계 관계자 100여 명은 22일 오전 제주웰컴센터 웰컴홀에서 기자회견을 열고 제주도를 향해 기존 관광국 조직을 그대로 유지할 것을 촉구했다.이들은 최근 도가 코로나19 이후의 상황에 대비해 관광국과 문화체육대외협력국을 통합하기로 한 데 대해 "예산 절감이라는 미명 아래 제주경제에 막대한 비중을 차지하는 관광의 책임부서를 축소통합하는 것은 도저히 이해할 수 없는 정책"이라고 비판했다.이들은 이어 도가 향후 제주도관광공사, 제주도관광협회 등을 총괄하는 '관광청' 신설을 단계적으로 검토하기로 한 데 대해서도 "상당한 시간이 소요될 것"이라며 "지금은 관광분야의 예산과 인력을 확대해야 할 때"라고 반발했다.이들은 "자구노력 없이 관광인들에게 재정위기 책임을 떠미는 무책임한 도정에 큰 실망감을 느낀다"며 "도는 관광국 체제를 현행 대로 유지하라"고 촉구했다. 이경용 제주도의회 문화관광체육위원회 위원장.(제주도의회 제공)© 뉴스1 이 뿐 아니라 제주도의회 문화관광체육위원회도 지난 17일자 입장문을 통해 도에 관광국 존치를 강력 촉구하고 있다.도의회 문화관광체육위는 "관광국이 설립된 지 4년 만에 과대조직의 정비라는 명분 아래 관광국을 축소시키는 것은 과거로의 회귀"라며 "전국 최초 관광국 신설이라는 타이틀 마저 4년 만에 무색하게 됐다"고 지적했다.도의회 문화관광체육위는 이어 "예산과 인력을 확대해도 모자랄 시점에 오히려 조직을 흡수통합하겠다는 발상은 코로나19 이후의 제주관광을 사실상 포기하겠다는 것과 다름 없다"며 관광조직의 통합과 기능 강화를 촉구했다.앞서 도는 지난 19일 관광국 축소 통합 등의 내용을 담은 조직개편안을 입법예고했으며, 오는 25일까지 의견을 수렴해 다음달 중 도의회 심의를 받을 예정이다. mro1225@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 유명 래퍼, 객석 다이빙…땅바닥 '툭' 굴욕 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>경찰 "제주도 '오라관광단지 자본검증 요구' 하자없다" 결론 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 경찰 "제주도 '오라관광단지 자본검증 요구' 하자없다" 결론 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 경찰 "제주도 '오라관광단지 자본검증 요구' 하자없다" 결론 송고시간2020-06-25 09:58 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 백나용 기자 기자 페이지 사건 각하 의견으로 검찰 송치 (제주=연합뉴스) 백나용 기자 = 제주 최대 규모의 복합리조트인 오라관광단지 개발사업과 관련, 제주도의 자본검증 요구에 대한 위법성 여부를 수사한 경찰이 위법성이 없다는 결론을 내렸다. 제주 오라관광단지 조감도 [연합뉴스 자료사진] 제주서부경찰서는 해당 사건을 각하 의견으로 검찰에 송치했다고 25일 밝혔다. 각하는 고소·고발 내용이 소송 절차상 기본요건을 충족하지 못했다는 것을 의미한다. 광고 앞서 5조원 규모의 오라관광단지 개발사업을 추진했던 박영조 전 제이씨씨(JCC)회장은 지난해 12월 법과 조례에도 없는 자본검증 실시와 예치금 납부 등을 요구한 원희룡 제주지사를 직권남용 혐의로 검찰에 고발했다. 경찰은 지난 4월 박 전 회장을 불러 고발인 신분으로 조사한 데 이어 담당 공무원을 참고인으로 조사했다. 경찰은 수사 결과 자본검증에 대한 위법성을 찾을 수 없고 원 지사의 직권남용 혐의도 인정하기 어렵다고 판단, 해당 사건을 각하 의견으로 검찰에 송치했다. dragon.me@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/06/25 09:58 송고 #제주 #오라관광단지 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주 여행한 관광객 2명 코로나 19 확진에 제주도 비상 : 제주 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [단독] 감사원, 국민감사본부 만들어 한 일이 ‘KBS 감사’ 뿐 [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 ‘문자 내통’ 유병호 “송구스럽지만, 그 소통은 정상적인 것” 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야”서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 ‘일제고사’ 부활 선언…윤 대통령 “원하는 모든 학교 참여” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 인류가 가장 가까이서 본 유로파, 뒤얽힌 얼음 능선 너머엔… ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국제주 제주 여행한 관광객 2명 코로나 19 확진에 제주도 비상 등록 :2020-06-20 18:46수정 :2020-06-20 19:14 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 15~18일 제주여행에 나선 경기 안산시민 등 2명 확진접촉자 57명 자가격리…제주 유명 관광지·맛집 등 다녀 제주도 여행을 다녀간 관광객 2명이 잇따라 코로나19 확진 판정을 받아 제주도 방역당국에 비상이 걸렸다. 제주도는 지난 19일 서울 강남구보건소에서 경기 안산 거주 ㄱ씨가 코로나19 확진 판정을 받은 데 이어 여행에 동행한 지인 ㄴ씨도 확진 판정을 받음에 따라 역학조사를 벌이고 있다고 20일 밝혔다. 도는 이 날 오전 10시5분께 서울 강남구보건소를 통해 ㄴ씨가 확진 판정을 받은 사실을 확인했다. 앞서 강남구보건소는 지난 19일 오후 경기 안산시 거주 ㄱ씨가 확진 판정을 받았다고 제주도에 알려왔다. 이들은 지난 15일 오후 2시50분께 김포발 제주행 진에어 항공편을 이용해 제주도에 들어온 뒤 3박4일 동안 단체관광에 나서 제주도내 유명 관광지와 맛집 등을 돌아다녔다. 이들은 18일 오전 11시35분 제주발 김포행 진에어 항공편으로 돌아갔다. 도는 역학조사 결과 20일 오후 5시 기준 ㄱ씨 일행의 접촉자 57명을 확인해 자가격리했으며, 확진자가 방문한 장소 21곳에 대한 방역 소독을 끝냈다. 도는 확진자의 진술과 강남구보건소의 역학조사 결과를 바탕으로 여행사와 폐회로텔레비전(CCTV) 기록 확인 등을 통해 ㄱ씨와 ㄴ씨 등 일행의 동선과 접촉자 등을 교차 확인하고 있다. ㄱ씨는 강남구보건소의 역학조사 과정에서 “지난 16일부터 몸살과 감기 기운을 느꼈다”고 진술했으며, 현재는 발열만 있는 것으로 알려졌다. ㄴ씨는 ㄱ씨의 코로나19 확진 소식을 듣고 19일 오후 검체 검사를 해 20일 오전 양성 판정을 받았다. ㄴ씨는 제주 방문 기간 및 지금까지 코로나19 의심 증상은 없는 상태이다. 한편 강남구보건소의 역학조사 결과 ㄱ씨는 지난 17일 확진 판정을 받은 강남구 80번째 확진자로부터 서울시 역삼동 한식뷔페 ‘사랑의 도시락’에서 제주 입도 전 감염된 것으로 파악됐다. ㄱ씨는 제주여행 기간 동안 공식 접촉자로 통보받지 못했지만 강남구 80번째 확진자와 동선이 겹치는 경우 보건소에서 검사를 받으라는 강남구의 안내에 따라 18일 서울 도착 즉시 검체 검사를 받은 것으로 확인됐다. 허호준 기자 hojoon@hani.co.kr 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 3. 김진태 등에 업은 ‘학업성취도평가’…“학원에 선물 주는 것” 4. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 5. “토건 집착, 공공의료 뒷전” 대구 시민단체의 홍준표 100일 비판 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>거꾸로 가는 제주도 관광정책… 관광국 4년만에 폐지 반발 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 거꾸로 가는 제주도 관광정책… 관광국 4년만에 폐지 반발 입력 : 2020-06-23 03:00:00 수정 : 2020-06-22 12:51:11 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 제주도가 관광국을 폐지하기로 하자 관광 정책이 거꾸로 간다는 지적이 일고 있다. 22일 제주도 조직개편안에 따르면 2016년 신설한 관광국을 4년 만에 폐지해 문화체육대외협력국과 통합, 문화관광국을 신설한다. 제주도는 “신종 코로나바이러스 감염증(코로나19) 이후 문화와 관광분야가 대면 위주에서 비대면으로 전환돼 큰 변화가 예상되면서 문화체육대외협력국과 관광국을 문화관광국으로 통합해 전략적으로 대비하기로 했다”라고 밝혔다. 또 관광분야는 대면·자연경관 위주의 기존 관광에 문화를 결합해 새로운 관광자원으로 삼아 변화에 대응하고, 향후 도관광공사와 도관광협회 등을 연계해 총괄하는 ‘관광청’ 신설을 단계적으로 검토하기로 했다. 하지만, 원희룡 지사가 민선 6기 재임 시절 관광산업의 질적성장과 관광업무의 일원화라는 명분으로 전국 최초로 관광국을 설립했지만 4년 만에 관광국을 축소해 자가당착이라는 지적이 제기되고 있다. 제주도관광협회와 제주관광학회 등 제주지역 관광업 종사자들은 22일 기자회견을 열어 “제주도의 관광국 축소통합 조직개편 계획은 제주관광을 포기하는 처사”라며 반대했다. 관광업 종사자들은 “제주 지역내총생산(GRDP)에서 관광을 포함한 서비스업이 차지하는 비중이 전체의 73％를 차지할 만큼 제주경제에 막대한 부분을 차지하고 있다”며 “관광을 포기하는 순간 제주경제는 순식간에 무너질 것이 불 보듯 뻔하다”고 주장했다. 이들은 “전국 자치단체가 주력 산업으로 관광산업에 집중하는 등 지방자치단체 간 경쟁이 치열해지고 있고, 빠르게 변화하는 관광산업의 특성상 이를 선제적으로 대응하기 위해서라도 관광국의 역할이 매우 중요하다”고 강조했다. 이들은 “관광은 농축산을 비롯한 해양·교통·체육·문화 등 다른 산업분야와도밀접한 연관이 있기 때문에 관광을 중심으로 협업 체계가 마련돼야 하는 상황에서 예산절감이라는 미명 아래 관광 책임부서를 축소통합하는 것은 이해할 수 없다”고 말했다. 이경용 제주도의회 문화관광체육위원장은 “조직의 효율화와 과대조직의 정비라는 명분으로 관광국을 축소하는 것은 관광국을 독립 운영해 온 취지와는 정반대로 가는 것”이라고 꼬집었다. 이 위원장은 “중국 사드(THAAD·고고도 미사일 방어 체계) 국면의 장기화와 코로나19 팬데믹선언으로 인해 관광업계의 영업 중단 장기화와 도민고용마저 불안한 최악의 상황이 지속하고 있다”면서 “관광예산, 관광조직과 인력을 확대 집중해도 모자랄 시점에 오히려 조직을 흡수해 통합하는 발상이야말로 관광업계와 도민들의 정서를 파악하지 못하고 코로나19 이후의 제주관광을 사실상 포기하겠다는 것과 다름없다”고 비판했다. 문화관광체육위원회는 제주도에 ‘관광국’의 존치를 비롯해 각 부서에 산재한 관광업무를 통합한 관광국의 확대 재편과 관광부지사 및 ‘관광청 신설’ 검토를 요구하는 의견을 전달하기로 했다. 제주도 조직개편안은 오는 25일까지 의견수렴 과정을 거쳐 다음달 도의회 심의를 받는다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20200622511190 0101070100000 0 2020-06-23 3:0:0 2020-06-22 12:51:11 0 거꾸로 가는 제주도 관광정책… 관광국 4년만에 폐지 반발 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도 3박4일 여행한 코로나19 확진자…관광지 19곳 긴급방역 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 이데일리 로봇 단독 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 팜이데일리 마켓in 스냅타임 제주도 3박4일 여행한 코로나19 확진자…관광지 19곳 긴급방역 지난 15~18일 관광버스로 제주도 여행접촉자 56명 자가격리…“의심증상시 신고” 등록 2020-06-20 오전 10:14:47 수정 2020-06-20 오전 10:14:47 가 가 김기덕 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 김기덕 기자] 제주도를 3박 4일간 놀러온 여행객이 코로나19 확진 판정을 받아 주요 관광지가 긴급 폐쇄되고, 접촉자 수십명에 대해 자가 격리 조치가 내려졌다. 제주도는 지난 19일 확진 판정을 받은 A씨가 제주 여행 당시 다녀간 관광지 등 19곳에 대해 방역 소독을 하고 접촉자 56명을 자가격리 조치했다고 20일 밝혔다. 경기도 안산시에 거주하는 A씨는 지난 15일부터 18일까지 제주 관광을 한 후 이상 증상을 느껴 서울 강남구에서 코로나19 검사를 받았다. 이후 19일 최종 코로나19 확진 판정을 받았다. 제주도에 따르면 A씨는 지난 15일 오후 2시 50분께 김포공항에서 진에어 LJ319편을 타고 제주에 왔다. 이어 지난 15일 용두암·용연다리·도두봉(오후 3시 30분∼오후 5시), 삼해인 관광호텔 숙소(오후 5시 30분), 자매국수 본점(오후 5시 50분∼오후 7시 25분), 숙소(오후 7시 45분) 등을 방문했다. 16일에는 호텔 조식(오전 8시 34분), 유리의성 및 더마파크(오전 9시∼오전 11시 30분), 라메르뷔페(낮 12시 10분∼40분), 서귀포 유람선(오후 2시 5분∼오후 3시 10분), 숙소(오후 6시 40분), 동문시장(오후 6시 48분∼오후 8시 10분), 숙소(오후 8시 28분) 등의 일정을 소화했다. 17일에는 또 호텔에서 아침 식사를 하고 야호농수산, 에코랜드, 나그네식당, 우리승마장, 블루마운틴커피박물관 등을 방문한 것으로 알려졌다. A씨는 여행 마지막 날인 18일에는 오전 10시 호텔 식당에서 식사한 후 제주공항으로 이동, 오전 11시 35분께 진에어 LJ314편을 타고 김포공항으로 이동했다. A씨는 여행사의 단체 관광상품(패키지 관광)을 이용해 제주 여행 당시 대부분 전세버스로 이동한 것으로 알려졌다. 또 그는 지난 16일부터 몸살 등 의심 증상이 있었다고 보건당국에 진술한 것으로 알려졌다. 제주도는 의심 증세가 있는 도민은 질병관리본부 콜센터(국번 없이 1339) 또는 관할 보건소로 연락해 줄 것을 당부했다. 경기도 안산시 단원구 와동초등학교에서 지난 19일 전교생을 대상으로 전수검사가 시행되고 있다. 사진은 본 기사와 무관.(연합뉴스 제공) `코로나19` 비상 이슈 더보기 ‘코로나 때문에’…작년 단기사채 발행, 제도 도입 후 첫 감소 전국 교정 시설 코로나 누적 확진자 1238명…동부구치소 10명 추가 “담배 피우고 싶어”…코로나 격리 군인, 3층서 탈출하다 추락 주요뉴스 똥값 된 금(金)값…이젠 금 사도 되지 않을까 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 3"저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 4[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]'인사하는 정진석-주호영' [포토] 살 맛나는 가격 60% 할인 [포토] 2022 제약바이오 채용박람회 개막식 [포토]필리핀 복싱 영웅 파키아오의 미소 [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 3 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 4 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 8 인터넷 포털에서 ‘윤석열차’ 검색해 봤더니… 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 “키스 5단계는” “치마 짧으면...”..선생님이 이런 농담을 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 8 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 9 김태현 국민연금 이사장 "공모주 기계적 투자, 수정 여부 검토할 것"[2022국감] 10 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 4 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 5 선우은숙, 유영재와 재혼 소식에 전 남편 이영하 반응은? 6 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 7 공효진♥케빈오 11일(현지시간) 뉴욕 결혼식…정려원·엄지원 미국行 8 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 9 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 10 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! '드레스를 조심해' 남다른 주먹 北 전술핵운용부대 왼쪽 오른쪽 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 문화재 보존구역 소송 25건…"허술한 관리" 지적[2022 국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 똥값 된 금(金)값…이젠 금 사도 되지 않을까 아이폰은 왜 갤럭시로 충전 못하나요[궁즉답] [단독] KB국민은행 알뜰폰, SKT 망까지 쓴다…금융+통신 가속화 .실리콘밸리서 가장 부유한 러시아인, 러 시민권 포기 .선우은숙, 유영재와 재혼 소식에 전 남편 이영하 반응은? .“사는 게 힘들어서…” 어린 자녀 살해 후 극단 선택한 엄마들 .문화재청 4명중 1명, 청와대 행사 동원…"업무 부담" 비판 .北 대형 잠수함 개발 실패했나…유례없는 '저수지 수중 발사' .이재명, 한미일 군사훈련에 "국방 참사이자 안보 자해행위"(종합) 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 포스코아르헨티나, 2단계 염수리튬 사업 개시…1.5조원 투자 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주도, 관광국 축소통합 조직개편 계획…도의회는 반대 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광국 축소통합 조직개편 계획…도의회는 반대 등록 2020.06.18 17:34:05 작게 크게 제주도의회 문화관광체육위 의원 일동 입장문 전달 이경용 위원장 “관광국 축소, 과거 회귀로 자가당착” [제주=뉴시스] 이경용 제주도의회 문화관광체육위원장(미래통합당·서귀포시 서홍·대륜동). (사진=제주도의회 제공)[제주=뉴시스] 강경태 기자 = 제주특별자치도가 전국 최초로 설립한 관광국을 4년 만에 축소 통합하는 조직개편안을 마련하자 도의회가 반대 입장을 표명했다. 제주도의회 문화관광체육위원회(위원장 이경용·미래통합당·서귀포시 서홍·대륜동)는 18일 보도자료를 내고 “민선 7시 하반기 조직개편(안) 추진과 관련해 문화체육대외협력국과 관광국을 통합하는 개편안에 대해 반대 입장을 전달하기로 했다”고 밝혔다. 입장문은 이경용 위원장과 문종태 의원(더불어민주당·제주시 일도1·이도1·건입동), 양영식 의원(더불어민주당·제주시 연동갑), 박호형 의원(더불어민주당·제주시 일도2동갑), 강민숙 의원(더불어민주당·비례대표), 이승아 의원(더불어민주당·제주시 오라동) 등 문화관광체육위원회 소속 의원들이 모두 동의했다. 도의회 문화관광체육위원회는 입장문을 통해 관광국 통합 조직개편안 추진을 반대하고 관광국 존치를 촉구하고 있다. 또 스포츠관광과 생태관광, 농어촌·마을관광, 해양관광, 스마트관광 등 각 부서에 산재된 관광 업무를 일원화해 통합행정이 가능하도록 관광국 산하 과 단위 부서의 확대 재편을 요구했다. 이날 열린 문화관광체육위원회 회의에서 이경용 위원장은 “민선 6기 원희룡 제주도정은 관광산업 질적 성장과 관광업무 일원화라는 명분으로 전국 최초로 관광국을 설립했지만, 4년 만에 조직 효율화와 과대조직 정비를 명분으로 관광국을 축소하려고 한다”며 “이는 과거로의 회귀이며 관광국 독립운영 명분과 정반대로 추진되고 있어 제주도가 스스로 자가당착의 우를 범하고 있다”고 비판했다. 이 위원장은 “신종 코로나바이러스 감염증(코로나19) 사태 이후 관광 예산과 조직, 인력을 확대 집중해도 모자랄 시점에 오히려 조직을 흡수 통합하는 발상은 관광업계와 도민 정서를 파악하지 못한 것”이라면서 “코로나19 이후 제주 관광을 포기하겠다는 것과 다름없으며, 도지사의 대권 도전 행보에 맞춘 조직개편안이 관광국 축소까지 영향을 미쳐서는 안 된다”고 말했다. ◎공감언론 뉴시스 ktk2807@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>[사회][뉴있저] 제주도, 해열제 10알 먹고 여행한 관광객에 손해배상 소송 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제기에 여당... 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... 감사원 국감, 시작부터 '파행'...친일 국방 논란 계속 당뇨약으로 나왔다 비만약으로 대박!...체중 20% 쏙 빠져 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 [뉴있저] 제주도, 해열제 10알 먹고 여행한 관광객에 손해배상 소송 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 학교 비정규직노조, "폐암으로 죽어가"...급... [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제... "자존심 살리려는 절박함"...러시아 보복 공습으로 전... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일 국방' 공세 일축 정진석 "조선, 내부에서 썩어 문드러져 망해"…발언 놓고 논란 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 감사원 국감, 오전 내내 '파행'…친일 국방 논란 계속 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 코스피, 2,200선 붕괴…환율, 장중 1,430원 돌파 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 "자존심 살리려는 절박함"…러시아 보복 공습으로 전황 격화 우려 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 도심에서 50대 권총 맞아…극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 오늘부터 개량백신 접종…신규 확진 1만 5,476명 동시계약 허점 노려 전세대출금 가로채…'신종 사기' 적발 "자격시험 도중 화장실 못하게 하는 건 인권 침해" 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 물가 오름세에 '구제 시장'도 한숨…"손님 있어도 안 사요" 학력 전수평가 5년 만에 사실상 부활…초3~고2로 확대 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 다음 사회 [뉴있저] 제주도, 해열제 10알 먹고 여행한 관광객에 손해배상 소송 2020년 06월 22일 20시 06분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 제주도, 해열제 10알 먹고 여행한 관광객에 손해배상 소송 "접촉자 57명 격리, 소독 작업 등 행정령 소모" 제주도 자가 격리 중이던 20대 여성 숨진 채 발견 "격리 당시 불안 호소…지인과 함께 있게 해달라 [앵커] 코로나 19에 대한 개인 방역이 느슨해지는 틈을 타서 소규모 집단 감염이 계속되고 있습니다. 이런 가운데 제주도는 코로나 19 증상에도 불구하고 해열제를 먹고 여행을 한 관광객에게 손해 배상 소송을 제기하기로 했습니다. 이연아 기자와 자세한 내용 알아보겠습니다. 이 관광객이 이틀 동안 해열제를 열 알이나 먹었다고요? 본인도 힘들었을 텐데요. [기자] 경기도 안산에 사는 이 관광객은 지난 15일부터 3박 4일간 제주도 여행을 했습니다. 16일부터 몸살과 감기 기운이 있었지만, 이틀간 해열제 10알을 먹으며 10여 곳 이상의 관광지와 식당 등을 방문한 것이 확인됐는데요. 제주도는 이 때문에 57명이나 자가격리 조치했고, 방문 장소 소독 작업을 포함해 행정력이 소모됐다며, 손해배상 소송을 제기하기로 했습니다. 이미 지난 4월에 원희룡 제주지사는 코로나 19 관련 모든 불법행위에 대해 책임을 끝까지 묻겠다며 강경한 입장을 밝혔습니다. 다만, 이번에는 민사적인 책임만 물을 수 있을 것으로 보이는데요. 전문가 이야기 들어보시죠. [이용환 / 변호사 : 형사적 책임을 묻기 어렵고요. 민사적으로 본인이 현재 상황에서 코로나 19 증상으로 보일 때는 검사를 해서 타인에게 피해를 끼치지 않아야 될 주요 의무가 있다고 생각합니다. 그럼에도 불구하고 증상이 발생했는데 해열제를 지속적으로 먹으면서 돌아다녔다는 부분에 있어서 윤리적인 문제도 있지만, 법률적으로 민사적 손해배상 책임을 질 수 있다고 보입니다.] 제주도는 지난 3월에도 자가격리 조치를 어기고 제주도를 여행한 모녀를 상대로 소송을 제기했습니다. [앵커] 그런데 제주에서 접촉자로 분류돼 격리 중이던 20대 여성이 극단적인 선택을 하는 일이 빚어졌다고요? [기자] 오늘 오전 제주도 인재개발원에서 코로나 19 관련 격리 중이던 27살 여성이 숨진 채 발견됐습니다. 이 여성의 지인이 연락이 닿지 않자 제주도 측에 확인을 요청하면서, 알려졌는데요. 이 여성은 지난 18일 지인과 함께 비행기를 타고 관광 목적으로 제주를 찾았습니다. 당시 같은 비행기에는 확진 판정을 받은 방글라데시인이 탑승한 사실이 밝혀지면서, 여성과 지인 모두 접촉자로 분류돼 격리됐습니다. [앵커] 안타까운 일인데요, 이 여성이 정신 건강 질환 관련 약을 복용하고 있었다고요? [기자] 해당 여성은 서울에서 정신 건강 질환 치료를 받아왔고, 격리 중이던 지난 20일에도 보건소를 통해 관련 약을 대리 처방받은 것으로 나타났습니다. 또 격리 당시 불안을 호소하며 지인과 함께 있게 해달라고 부탁한 사실도 확인됐는데요. 제주도는 1인 1실 격리가 원칙이지만 2ｍ 거리 두기 같은 격리 수칙 준수를 조건으로 낮에는 지인과 함께 있도록 했다고 설명했습니다. 들어보시죠. [임태봉 / 제주도청 보건국장 : 처음에는 한방에 격리될 수 있도록 요청한 것으로 알고 있고 그래서 옆방으로 조치를 했고요. (그 과정에서) 지인과 좋은 관계를 맺고 있었고 특별한 조치를 할 상황은 아니었던 것으로 파악하고 있습니다.] 숨진 여성이 묵었던 곳에는 현재 20여 명이 격리 중인데요. 제주도 측은 심리적 충격 등을 고려해 전원 심리 상당을 마치고 격리 장소를 옮기는 방안도 검토하고 있습니다. 숨진 여성은 검사 결과 코로나 19는 최종 음성 판정을 받았는데요. 전문가들은 유사한 사례를 막기 위해서는 좀 더 세심한 방안 마련이 필요하다고 지적합니다. 이연아 [yalee21@ytn.co.kr] "우울감 등 말하기 어려운 고민으로 전문가의 도움이 필요하면 자살예방상담전화 1393, 생명의 전화 1588-9191, 청소년 전화 1388 등에 전화하면 24시간 상담을 받을 수 있습니다."[저작권자(c) YTN 무단전재 및 재배포 금지] 사회 기사목록 전체보기 다문화자녀 지원 강화...이중언어 코치·언어발달 지도사 확충 "왜 나 무시해"...지인에게 흉기 휘두른 50대 검거 교육부·대학 사이버 공격 5년 간 21만 건...정보 유출 우려 병원 방문 어려운 노인 위한 '찾아가는 의료' 12월부터 시범사업 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>'관광국' 4년만에 폐지…유사기구 통폐합 제주도 조직개편안 마련 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 '관광국' 4년만에 폐지…유사기구 통폐합 제주도 조직개편안 마련 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 '관광국' 4년만에 폐지…유사기구 통폐합 제주도 조직개편안 마련 제주CBS 박정섭 기자 메일보내기 2020-06-19 18:51 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 도민안전실과 교통항공국을 '안전교통실'로문화체육대외협력국과 관광국을 '문화관광국'으로 통합제주관광공사와 제주도관광협회 통합한 '관광청' 검토키로 (사진=제주도 제공) '저비용 고효율' 체제 아래 유사중복 기구를 통폐합하는 제주도 조직개편안이 마련됐다. 제주도는 현행 15개국 60개과에서 13개국 58개과로 2개국 2개과를 감축하고, 제주시는 1개과, 서귀포시는 1개국 2개과를 감축하는 '민선7기 후반기 조직 개편안'을 19일 입법예고했다.코로나19가 가져온 비대면 등의 트렌드를 반영하고, 국에는 4개과 이상, 과에는 4개팀 이상으로 하는 조직 운영을 원칙으로 삼았다.주요 개편내용을 보면 우선 코로나19 국면에서 최우선 과제가 된 '안전' 분야에서 방역 강화는 물론, '안전 제주'를 실현하기 위해 도민안전실과 교통항공국을 '안전교통실'로 통합한다.코로나 이후 문화와 관광분야가 비대면 위주로 전환되는 변화에 맞춰 문화체육대외협력국과 관광국을 '문화관광국'으로 통합했다.특히 향후 제주관광공사와 제주도관광협회 등을 연계해 총괄하는 '관광청' 신설을 단계적으로 검토하기로 했다.국 단위 임시기구로 운영하던 특별자치제도추진단을 '특별자치분권과'로 정규 조직화해 제주특별법 제도개선을 수행하게 한다.제주의 아픔을 평화로 승화시켜 외연을 확대해 나가기 위해 4.3지원과와 평화대외협력과를 통합, '4.3평화과'로 확대 개편한다.해양산업과와 해녀문화유산과는 '해양해녀문화과'로 통합해 해녀 육성은 물론 청정 해양과 해녀문화의 가치 창출을 전담한다.도민 건강을 수호하고 감염병 위기 대응 역량을 강화하기 위해 보건건강위생과에 전염병예방 전담팀과 역학조사 전문 인력을 보강한다.도민에게 양질의 고용서비스를 제공하기 위해 고용센터와 서귀포지소를 신설, 취업알선과 서귀포시민의 편의를 도모한다. 투자분야도 그간의 대규모 개발사업 위주에서 벗어나 국내기업 등 미래산업유치로 전환, 일자리 창출과 통상분야와 연계시키기 위해 '투자통상과'로 통합 조정된다.행정시에서 대행해 오던 읍면동 감사업무를 감사위원회에 읍면동감사팀을 신설해 직접 수행하게 된다.행정시는 서귀포시 청정환경국과 안전도시건설국을 도시환경국으로 조정, 1국을 감축한다.공무원 정원은 6164명에서 6140명으로 24명(3급 2명, 4급 3명, 5급 9명, 6급 이하 10명)을 감축, 연간 20여억원의 인건비를 절감하게 된다. 조직개편안은 25일까지 의견수렴 과정을 거친 뒤 오는 7월 도의회 심의를 받을 예정이다. 더 클릭 정진석 "조선, 안에서 썩어 망해…日, 조선왕조와 전쟁 한 적 없다" 동료들 보는 앞에서 엉덩이 때려도…'정직 1개월' 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 윤 대통령 "청년들이 좌절 않게 희망의 사다리 놓아야" 이복현 금감원장 "불확실성 상시감시, 금융시스템 안정 최선" 안철수 "유승민·나경원 전당대회 나와라…국민에 묻자" '택시 연 매출, 배달업의 1/3에 불과' 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 “코로나19 확진 관광객 접촉자 57명 ‘자가격리’했다” - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 제주도 "코로나19 확진 관광객 접촉자 57명 '자가격리'했다" 제주도를 여행한 관광객 2명이 잇따라 코로나19 확진 판정을 받은 가운데, 제주도는 접촉자 57명을 자가 격리했다고 밝혔다. 함철민 기자 입력 2020.06.21 12:40 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 기사와 관련 없는 자료 사진 / 뉴스1[인사이트] 함철민 기자 = 제주도를 여행한 관광객 2명이 잇따라 신종 코로나바이러스 감염증(코로나19) 확진 판정을 받으며 제주도 방역 당국에 비상이 걸렸다. 지난 20일 제주도는 전날 서울 강남구보건소에서 확진 판정을 받은 안산시 거주 A씨가 코로나19 확진 판정을 받음에 따라 역학조사를 벌이고 있다고 밝혔다. 이어 접촉자 57명을 자가격리 조치했다고 전했다. 강남구보건소에서 검사한 결과에 따르면 A씨는 강남구 80번 환자에게 한 식당에서 감염된 것으로 파악된다. 다만 A씨는 80번 환자의 접촉자라는 사실을 통보받지 못하고 제주도 여행을 즐겼다. 기사와 관련 없는 자료 사진 / gettyimagesBank기사와 관련 없는 자료 사진 / 뉴스1A씨는 "80번 확진자와 동선이 겹치니 검사를 받으라"라는 강남구보건소의 설명을 듣고 서울로 돌아간 즉시 검체 검사를 받았다. 진술에서 A씨는 지난 16일부터 몸살 등 의심 증상이 있다고 말했다. A씨와 함께 여행을 갔던 B씨도 확진 판정을 받았다. 이들은 지난 15일 오후 2시 50분께 김포발 제주행 진에어 항공편을 이용해 제주도에 간 뒤 3박 4일 동안 단체 관광을 즐겼다.이후 제주도의 유명 맛집과 관광지를 돌아다녔다. 16일에는 호텔 조식을 마친 후 유리의성, 더머파크, 라메르 뷔페, 서귀포 유람선, 동문 시장 등을 방문했다. 기사와 관련 없는 자료 사진 / 뉴스117일에는 호텔에서 아침 식사 후 야호농수산, 에코랜드, 나그네식당(성산읍 소재), 우리승마장, 블루마운틴커피박물관에서 일정을 보냈다. 이들은 18일 호텔에서 제주공항으로 이동한 뒤 오전 11시 35분 제주발 김포행 진에어 항공편을 타고 서울로 돌아왔다. 제주도는 역학조사 결과 20일 오후 5시 기준으로 A씨 일행이 접촉한 인원은 57명이라고 밝혔다. 접촉자는 자가 격리했으며 확진자가 방문한 장소 21곳은 방역·소독을 끝냈다. 또한 도는 확진자의 진술과 강남구보건소의 역학조사를 바탕으로 여행사, CCTV 기록 등을 확인해 A씨, B씨와 접촉자의 동선이 겹치는지 교차 확인하고 있다. 함철민 기자 · chulmin@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도의회, 관광국 축소통합 반대 최종편집 2022년 10월 11일 14시 52분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주도의회, 관광국 축소통합 반대 정기후원 제주도의회, 관광국 축소통합 반대 관광부지사 및 관광청 신설 검토 요구 현창민 기자(=제주) | 기사입력 2020.06.20. 17:31:32 최종수정 2020.06.21. 05:33:09 페이스북 트위터 카카오스토리 밴드 URL복사 ▲.ⓒ제주도의회 이경용 문화관광체육위원장(미래통합당 서귀포시 서홍.대륜동) 제주도의회 문화관광체육위원회(이경용위원장)는 제주도 민선7기 하반기 조직개편(안)에 대한 반대 입장을 밝혔다. 제주도의회 문화관광체육위원회는 지난 19일 입법예고된 민선7기 하반기 조직개편(안) 추진과 관련, '문화체육대외협력국'과 '관광국' 통합 개편안에 대한 반대 입장을 제주도에 전달하기로 했다. 이경용 위원장은 지난 17일 2019년 관광국 결산심의에서 쟁점이 되었던 하반기 조직개편(안)추진과 관련해 관광국 축소는 과거로의 회귀이며 제주도정 스스로 자가당착의 우를 범하고 있다고 강하게 비판했다. 이경용 위원장은 "원희룡지사의 민선6기 재임시절 관광산업의 질적성장과 관광업무의 일원화라는 명분 하에 전국 최초로 관광국을 설립했다"며 "(불과) 4년만에 조직의 효율화 및 과대조직의 정비라는 명분 하에 관광국을 축소시키는 것은 관광국을 독립 운영해 온 명분과는 정반대로 가는 것"이라고 꼬집었다. 또 "중국 사드국면의 장기화와 코로나19 팬데믹선언으로 인해 관광업계의 영업중단 장기화와 도민고용마저 불안한 최악의 상황이 지속되고 있다"면서 "관광예산, 관광조직과 인력을 확대 집중해도 모자랄 시점에 오히려 조직을 흡수통합하는 발상이야말로 관광업계와 도민들의 정서를 파악하지 못하고 코로나19이후의 제주관광을 사실상 포기하겠다는 것과 다름없다"고 날을 세웠다. 이어 "지금 관광산업은 초토화상태"라며 "도지사의 대권도전 행보에 맞춘 조직개편안이 관광국 축소까지 영향을 미쳐서는 안된다”고 강조했다. 이경용위원장을 비롯한 문화관광체육위원회 위원들은 제주도에 '관광국'의 존치를 비롯해 각 부서에 산재된 관광업무를 통합한 관광국의 확대 재편과 관광부지사 및 '관광청 신설' 검토를 요구하는 입장문을 전달하기로 했다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주도의회, 관광국 축소통합 반대 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자 pressianjeju@gmail.com 제주취재본부 현창민 기자입니다. 최근글보기 NAVER 에서 현창민 기자 를 구독·응원해주세요 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도의회, 관광국 축소통합 ‘반대’ &lt; 제주특별자치도의회 소식 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도의회, 관광국 축소통합 ‘반대’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주특별자치도의회 소식 제주도의회, 관광국 축소통합 ‘반대’ 기자명 진순현 기자 입력 2020.06.19 10:24 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 민선7기 하반기 조직개편 문화관광체육위 입장 전달도지사 대권도전 행보 맞춘 조직개편안 “안돼” 제주도의회 이경용 문화관광체육위원장제주도의회가 민선7기 제주도정 하반기 행정조직 개편으로 관광국을 축소통합하는 데 반대의 목소리를 냈다.제주도의회 문화관광체육위원회(이경용 위원장, 서귀포시 서홍·대륜동))는 지난 17일 개최된 2019년 관광국 결산심의시 쟁점이 되었던 민선7기 하반기 조직개편안 추진과 관련, 문화체육대외협력국과 관광국을 통합하는 개편안에 대해 반대하는 위원회 입장을 전달하기로 했다.이경용 위원장은 “원희룡 지사의 민선6기 재임시절 관광산업의 질적성장과 관광업무의 일원화라는 명분 하에 전국 최초로 관광국을 설립한지 4년만에 조직의 효율화 및 과대조직의 정비라는 명분 하에 관광국을 축소시키는 것은 과거로의 회귀”라며 “관광국을 독립운영해 온 명분과는 정반대로 추진되고 있어 제주도정 스스로 자가당착의 우를 범하고 있다”고 강하게 비판했다.이 위원장은 “더군다나 지금 관광산업은 초토화상태이다. 중국 사드국면의 장기화와 코로나19 팬데믹선언으로 인해 관광업계의 영업중단 장기화와 도민고용마저 불안한 최악의 상황이 지속되고 있다”며 “관광예산, 관광조직과 인력을 확대 집중해도 모자랄 시점에 오히려 조직을 흡수통합하는 발상이야말로 관광업계와 도민들의 정서를 파악하지 못하고 코로나19이후의 제주관광을 사실상 포기하겠다는 것과 다름없다”고 강조했다.그러면서 “도지사의 대권도전 행보에 맞춘 조직개편안이 관광국 축소까지 영향을 미쳐서는 안된다”고 덧붙였다.이 위원장을 비롯한 문화관광체육위원회 위원들은 이와 더불어 관광국의 존치, 각 부서에 산재된 관광업무를 통합한 관광국의 확대 재편, 관광부지사 및 관광청 신설 검토 등을 요구하는 입장문을 도에 전달하기로 했다. 진순현 기자 jinjin3808@naver.com 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>JIBS | 뉴스 다시 보기 장애인 서비스 광고/협찬 안내 회원가입 로그인 뉴스 뉴스 다시 보기 뉴스 기사 보기 보도 프로그램 뉴스제보 TV 정규프로그램 특집프로그램 종영프로그램 수어프로그램 라디오 김민경의 Now JEJU 동네방송 최재혁의 6시 이정민의 NEW POWER FM 편성표 in제주 60seconds 슬로우TV 제주 시청자센터 시청자 참여 시청자 위원회 시청자 고충처리제도 방송수신안내 공지사항 개인정보취급방침 공지사항 JIBS취재윤리강령 JIBS투어 뉴스 다시 보기 뉴스 기사 보기 보도 프로그램 뉴스제보 제주자치도관광협회 제주도 관광국 폐지에 반발 보도일자  2020-06-21 JIBS 신윤경 기자 글자크기 + - 제주자치도가 관광국을 없애고 문화관광대외협력국과 축소 통폐합 하겠다는 조직개편안을 발표한 가운데, 제주관광협회가 대응을 예고했습니다.제주자치도관광협회는 최근 조직개편안에 따른 긴급 회의를 개최하고 관광국 축소 폐지에 따른 의견을 수렴했습니다.관광업계 종사자들은 코로나19로 제주 관광이 고사 상태에 놓인 상황에서 4년만에 관광국을 없애는데 대한 우려를 표명했습니다.이에, 오늘(22일) 관련 입장을 발표하는 한편 집단 행동등을 검토하기로 했습니다. JIBS 신윤경 기자 &lt;저작권자 © JIBS 제주방송, 무단 전재 및 재배포 금지&gt; 관련기사 뉴스 클립 VOD [제주날씨] 한라산 서리 가능성..올가을 들어 제일 낮은 기온 올해 마지막 연휴가 지났습니다. 설악산에는 첫눈이 관측됐는데요, 어제 한라산 윗세오름에도 빗방울이 찬 바람을 만나며 싸락눈이 잠깐 내렸습니다. 오늘도 한라산 높은 산지에는 서리 내릴 가능성 있겠으니, 산행하시는 분들은 주의해주시고요. 어제부터 강하게 불던 바람은 오늘 오후 들어 차차 멎겠습니다. 강풍 주의보도 오후에 해제될 것으로 보이지만, 오전까지는 순간풍속 초속 20m/s 이상으로 강한 바람 부는 곳 있겠으니 조심해 주셔야겠습니다. 오늘은 구름 많다, 늦은 오후부터 차차 맑아지겠습니다.  어제는 올가을 들어 가장 낮은 기온을 기록했는데요. 오늘과 내일 기온이 더 낮겠습니다. 오늘은 15.6도에서 시작하고 여기에 강풍까지 불며, 체감온도는 더 낮아져 쌀쌀하겠습니다. 지역별 현재기온 보시면, 서귀포는 14도에서 출발하고, 대부분 지역 한낮 20도 안팎에 머물겠습니다. 현재 해상에 풍랑 주의보가 발효 중인 가운데, 제주 앞바다는 오전까지 물결 최고 4m로 거세게 일겠습니다. 제주 공항 구름만 조금 끼어있고요, 항공편은 정상 운항하겠습니다. 당분간 구름 많은 날씨가 많을 것으로 보이고,  목요일부터는 아침 기온 점차 올라 주말에는 19도가 예상됩니다. 날씨였습니다. 중소기업 경기전망치 반등 연이은 대체휴일에 따른 관광객 방문이 늘면서 중소기업경기전망지수를 끌어올렸습니다. 중소기업중앙회 제주지역본부가 9월 15일부터 22일까지 지역내 55개 중소기업을 대상으로 10월 경기전망을 조사한 결과 업황전망 중소기업건강도지수가 94.7로 전달 대비 6.0포인트 오른 것으로 나타났습니다. 업종별 전망치는 제조업이 96.2, 비제조업이 94.1로 기준치에 가깝게 올랐고 항목별로 고용수준을 제외한 생산과 내수판매, 자금사정 등이 전달보다 상승세를 보였습니다. 9월 중소기업 업황실적 건강도지수는 83으로 전달보다 떨어졌고 원자재값 상승 등이 경영난에 초래요인으로 꼽혔습니다. 전국체전 출전 제주선수단, 67개 메달 획득 울산에서 열리는 제103회 전국체육대회에 출전한 제주선수단이, 메달 목표를 초과 달성했습니다. 제주자치도체육회에 따르면 개막 나흘째인 10일 현재 선수단은 금메달 18개와 은메달 23개, 동메달 26개 등 67개 메달을 획득했습니다. 복싱에서 메달 2개를 확보해, 68개 이상 메달 획득 목표를 사실상 달성했습니다. 제주도청 이승봉 선수가 레슬링 일반부 자유형 70㎏급 결승에서 금메달을 딴 것을 비롯해 제주도청 고현주 선수와 제주시청 백수연 선수가 수영 종목 등에서 금메달을 따내며 목표 달성에 힘을 보탰습니다. 바다까지 바꾸는 지하수...강해지는 태풍도 위협 (앵커) JIBS는 바다로 유출되는 막대한 양의 지하수가 제주 연안 생태계까지 바꿔놓을 수 있다고 집중적으로 보도한 바 있습니다. 육상의 오염물질이 지하수에 녹아 그대로 바다로 유입되기 때문입니다. 이런 상황에서 날로 강력해지고 있는 태풍도 이런 오염 물질 이동에 큰 영향을 미치는 것으로 나타났습니다. 김동은 기잡니다. (리포트) 제주와 똑같은 화산섬이자, 지하수 의존도가 높은 하와이. 최근 하와이 산호가 빠르게 사라지고 있습니다. 이 원인 가운데 하나는 바다로 유출되는 지하수, 즉 SGD가 영양분을 과다하게 공급하고 있기 때문입니다. 이런 지하수 유출은 전세계 산호나 연안 생태계에 큰 영향을 미치고 있습니다. 우리나라 남해를 비롯해, 최근 제주에서 잇따라 확인된 적조도 지하수 오염과 연관돼 있다는 얘깁니다. 이은희 / 한국지질자원연구원 선임연구원 "(오염물질이) 바다로 유입되는 중요 기작으로 알려져 있습니다. 이렇게 영양염 농도가 높은 지하수가 바다로 유출되면 적조나 해안의 부영양화 등의 문제를 일으킬 수 있어서 전세계적으로 많은 주목을 받고 있습니다" 특히 제주는 거의 모든 연안에서 막대한 양의 지하수가 매일 바다로 유출됩니다. 제주 연안 생태계 전반이 지하수의 변화에 크게 좌우될 수 밖에 없습니다. 김규범 / 서울대학교 지구환경과학부 교수 "지하수가 가장 중요하다. 왜냐하면 전면적에서 일어나고, 수심 깊은 곳에서도 유출되기 때문에 두말할 나위없이 (제주 연안은) 지하수에 완전히 종속된 생태계다" 점차 강력해지고 있는 태풍도 지하수 유출량과 오염물질 수송에 큰 영향을 미치는 것으로 나타났습니다. SGD, 즉 해저지하수 유출은 조석의 차와 파고에 가장 큰 영향을 받는데, 태풍이 강해질수록 파도가 높아지고, 강수량도 많아지면서 육상 오염물질이 토양에서 정화되지 못한 채, 그대로 바다로 빠져나가 버리는 겁니다. 화순해변에서 이뤄진 한 연구에서는 태풍이 오기 전보다 태풍이 지난 직후 지하수 유출량이 2배나 늘었고, 이 지하수에 포함된 질소나 인 같은 영양염류 역시 최대 4배나 높아진 것으로 조사됐습니다. 김태훈 / 전남대학교 지구환경과학부 교수 "육상에 축적돼 있던 오염물질들을 한순간에, 순식간에 연안 환경으로 보낼 수 있는 중요한 기작이 될 수 있죠. 결국은 연안 환경에 미칠 수 있는 영향이 크다고..." 기후변화의 위협 속에 육상 오염을 얼마나 관리할 수 있느냐가 제주 지하수를 지키고, 연안을 보호하는 길이지만, 여전히 연구는 부족하고, 대책도 지지부진하기만 합니다. JIBS 김동은입니다. 영상취재 윤인수 고물가로 봉사활동도 힘들어...협업으로 극복 (앵커) 고물가 여파로 원자재 가격이 상승하면서 주거환경 개선을 위한 봉사활동에도 영향을 미치고 있습니다. 재원이 풍부한 봉사단체와 재능을 기부할 수 있는 봉사단체가 협업을 통해 고물가 속 봉사활동을 이어나가고 있습니다. 조창범 기잡니다. (리포트) 제주시 원도심의 한 주택에 노랗고 파란 조끼를 입은 사람들로 북적이기 시작합니다. 금방이라도 내려앉을 것 같은 천정을 뜯어내고, 새 합판으로 교체하기 시작합니다. 습기와 곰팡이가 낀 벽지도, 오래된 비닐장판도 뜯어냅니다. 오래된 온수기도 새 것으로 교체됩니다. 조창범 기자 "고물가로 인한 원자재 값 상승에도 불구하고 어려운 이웃을 돕기 위한 도움의 손길은 끊이지 않고 있습니다." 고물가에 원자재 값이 상승하면서 주거환경 개선 봉사활동도 위축될 수밖에 없었습니다. 하지만 재능을 가진 단체와 재원과 인력을 갖춘 단체가 만나면서 봉사활동을 이어갈 수 있게 됐습니다. 현장에서 남은 자재를 하나하나 모으고 회비로 자재를 사야 했던 어려움이 줄어든 겁니다. 또 봉사에 참여하는 인원이 많아지면서 동시에 두 곳에서 봉사활동을 할 수 있게 됐습니다. 정용진 / (사)봉사를건설하는사람들 회장 "한 해 봉사가 두 건, 세 건 밖에 못하는데, 재원하고 인원을 지원해주면 다섯, 여섯번까지도 지원되기 때문에 많은 사람들에게 도움을 줄 수 있다고 생각합니다." 고동호 / 삼다로타리클럽 회장 "코로나 19 이후에 자재비 인상이라든가 이런게 많이 있기 때문에 봉건회하고 협약해서 하고 있는데, 올해부터 3년동안 정기적으로 저희가 지원을 하려고 하고 있습니다." 어려운 이웃을 돕기 위한 마음과 마음이 만나면서 고물가의 여파 속에서도 봉사활동은 더 빛나고 있습니다. JIBS 조창범입니다. 영상취재 강명철 제주 코로나19 신규 확진자 90명 제주 코로나19 신규 확진자가 두 자릿수를 이어가고 있습니다. 제주자치도에 따르면 오늘(10일) 오후 5시까지 발생한 코로나19 신규 확진자는 90명으로 누적 확진자는,	 33만5,489명에 이르고 있습니다. 신규 확진자 가운데 20살 미만이 12명, 20살 이상 59살 이하는 61명, 60세 이상은 17명입니다. 현재 격리 중인 환자는 982명으로, 위중증 환자는 0명, 누적 사망자는 216명을 이어가고 있습니다. 관광객 증가 따라 불법 숙박도 '기승' 코로나19 확산세 완화와 거리두기 해제 등에 따른 관광객 증가에 맞물려, 불법 숙박업 운영도 끊이질 않는 것으로 나타났습니다. 서귀포시에 따르면 지난 4일 기준, 지역 내 단독주택과 빌라 등에서 숙박업소점검팀과 함께 적발한 불법 숙박업건수가 161건에 이르는 것으로 나타났습니다. 이중 44건은 고발했고 117건은 계도조치했습니다. 서귀포시는 불법 영업 단속을 위해 주말과 야간 단속을 강화하고, 주민신고와 홍보활동을 병행해나갈 방침입니다. 지난해 제주도자치경찰단이 적발한 불법 숙박영업은 297건으로 제주시 208건, 서귀포시 89건에 이릅니다. 관광객 와도 고민.. 물가 폭등 어쩌나 (앵커) 기준 금리가 재차 오를 것이란 '빅스텝' 예고가 나오면서, 물가 부담이 커지고 있습니다. 기름값이 둔화되는가 싶더니, 서비스물가들이 속속 올라 금리 인상 요인으로 작용하는 실정인데요. 관광산업에 주력하는 제주로선 속출하는 상승요인에 어떻게 대응할지, 고민을 더 서둘러야할 것으로 보입니다. 김지훈 기자입니다. (리포트) 한글날 연휴 막바지, 공항은 종일 오가는 발길로 북적입니다. 연휴 나흘 동안 18만 명 이상 제주를 찾았습니다. 수학여행에 단체관광객이 잇따라 성수기를 실감케 합니다. 다니는 부담이나 불편은 덜었지만, 주머니 사정이 빠듯해진 것도 사실입니다. 김지훈 기자 "코로나19 확산세가 완화되고 거리두기가 해제되면서 여행 부담은 줄이고 있지만, 각종 비용들이 크게 오르면서 또다른 걱정거리가 되고 있습니다" 여행수요가 늘어난건 좋지만 비용 부담은 더 커져 고스란히 물가지표로 드러납니다. 지난달 국내 단체여행비 상승률만 24.7%로, 성수기 접어들며 상승세가 뚜렷해졌습니다. 외식비에 숙박, 교통비까지 안오른게 없습니다. 이주영·이혜정 관광객(서울) "숙박비가 연휴기간이라 많이 오른 것 같아서, 대체적으로 여행오기가 예전보다 많이 부담스러웠어요" 8월 15%나 올랐던 국내항공료에 이어 9월 국제항공료가 18% 올라 상승세를 이어받았습니다. 11월부터 대폭 원유 생산도 줄 것으로 예상돼 국제유가 급등세도 우려됩니다. 코로나19 여파에서 벗어나 해외노선 회복을 기대한 항공수요는, 높아진 항공운임에 위축될 우려가 커졌습니다. 허종윤 관광객(서울) "제일 부담스러운건 항공료인데, 두세 명 왕복만 해도 항공료가 어마어마하니까. 항공료도 부담스러운데 비행기 잡기도 어려워요. 저희는 6개월 전에 항공 예약하고 숙소 예약하고 온거에요" 지난달 서비스물가는 5.2% 올라 전국 수준을 크게 웃돌고 고물가, 고금리 여파가 여행시장에 타격을 더할 것이란 관측이 지배적입니다. 한국은행이 지난 7월에 이어 두 번째 빅스텝에 나서 내년 상반기 기준금리가 3% 중반까지 오를 것이란 관측도 나오고, 경기 침체 우려는 거세지는 실정입니다. 관광객 증가에 따른 개인서비스 등 가중치가 높고 다른 지역보다 상승 압박이 큰 제주로선 연이은 물가 파고에 어떻게 대응할지, 대책 고민을 서둘러야할 것으로 보입니다. JIBS 김지훈입니다. 영상취재 강효섭 더보기 회사 소개 JIBS방송편성규약 JIBS취재윤리강령 개인정보처리방침 시청자고충처리 시청자위원회 방송수신안내 오시는길 사이트맵 JIBS Family NOW제주TV NOW제주Plus JIBS아나운서 JIBS문화장학재단 지역민영방송 SBS 강원민방 광주방송 대구방송 대전방송 부산방송 울산방송 전주방송 청주방송 우)63148 제주특별자치도 제주시 연삼로 95 (오라삼동) 대표전화 : 064)740-7800 팩스 : 064)740-7859 문의 : webmaster@jibs.co.kr CopyRight.2002 JIBS. ALL RIGHTS RESERVED</t>
+  </si>
+  <si>
+    <t>이승아 의원 "제주도, 포스트코로나 관광전략 준비 미흡" - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 이승아 의원 "제주도, 포스트코로나 관광전략 준비 미흡" 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 이승아 의원 "제주도, 포스트코로나 관광전략 준비 미흡" 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.06.17 16:01 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 이승아 의원이 17일 열린 제383회 제1차 정례회 결산심사에서 발언을 하고 있다. ⓒ헤드라인제주 제주특별자치도의회 문화관광체육위원회 더불어민주당 이승아 의원은 17일 진행된 제383회 제1차 정례회 회의에서 '제주형 웰니스관광 활성화사업' 등의 예산집행 부진을 거론하며 "포스트코로나 시대 제주관광전략 준비가 미흡하다"고 지적했다. 이 의원은 우선 웰니스관광과 관련해 "2019년도 편성사업 '제주형 웰니스관광 활성화사업'은 관광진흥기금으로 1억원을 편성했으나 집행액은 2500만원, 나머지 7500만원은 불용됐다"고 말했다. 이 사업은 청정·힐링·건강·치유의 섬으로 제주형 웰니스관광 육성을 통해 청정 제주의 이미지 제고 및 질적관광을 견인하기 위해 추진됐으나, 정책방향 설정을 위한 전문가 자문이외에 전혀 사업이 추진되지 않은 것으로 파악됐다. 이 의원은 "코로나19로 인한 뉴노멀 관광트랜드가 비대면, 건강, 안전, 지역관광, 청정·힐링관광이다. 코로나 이후로 웰니스관광, 온라인마케팅 등이 각광을 받고 있는데, 19년도 결산내역을 보니까 이와 관련한 사업예산들이 제대로 집행되지 않으면서 지금과 같은 코로나 위기상황에 빛을 발할 수 없어 안타깝다"고 꼬집었다. 그는 "한국관광공사나 경상북도를 비롯한 타 지자체에서는 포스트 코로나 시대의 관광테마를 '웰니스 관광'으로 선정하고, 이미 웰니스 추천 관광지를 마케팅 홍보하며 선제적 대응을 하고 있는 상황"이라며 "그런데 제주도는 이미 편성된 사업마저 불용처리해 버리고, 올해 들어서 뒤늦게 제주 웰니스관광 대표 15선 콘텐츠 발굴 선정을 위한 공개모집을 하고 있는 등 늑장대응을 하고 있다"고 지적했다. 특히 "'제주형 웰니스관광상품 개발지원 및 육성'은 민선7기 도지사의 공약사항이기도 해서 공약에 따른 이행을 연차별로 발빠르게 추진했다면 지금과 같은 코로나위기 상황에 전국의 선발주자로 대응에 나설 수 있었음에도 불구하고 이제야 콘텐츠 개발에 나서는 것은 문제"라고 안타까움을 나타냈다. 이 의원은 "최근 열린 제5차 국가관광전략회의에서도 경북도가 한발 앞서 선제적 포스트 코로나 대응 관광전략을 발표까지 하는데, 제주자치도는 지금껏 포스트 코로나 대비를 위해 이렇다 할 관광전략조차 발표된 것이 없다"며 "과거 사스나 메르스처럼 급감한 외국인관광객을 국내관광객 수요로 보완했던 사례에 기대고 있는 것은 아닌지, 아니면 지사께서 하루가 멀다하고 연일 중앙행보에 집중으로 포스트 코로나 대비를 위한 관광산업의 회생전략 마련은 뒷전인 것인지 너무 안일한 대응을 하고 있는 것은 아닌가"라고 말했다. 그는 "관광은 시스템산업이다. 코로나 피해로 인해 제주관광의 체질과 고용구조의 민낯이 낱낱이 밝혀지고 있다"며 "코로나로 인해 직격탄을 맞은 관광업계가 기댈 곳은 행정밖에 없는데 행정의 늑장 대응을 한다면 도내 관광업체의 피해는 더욱 가속화될 뿐"이라며 조속한 대책마련을 당부했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제23회 제주도 관광기념품 공모전 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제23회 제주도 관광기념품 공모전 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제23회 제주도 관광기념품 공모전 개최 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.06.17 17:55 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회는 제주의 문화, 먹거리, 관광명소 등을 반영한 대표 관광기념품을 발굴․육성 하고자 '제23회 제주특별자치도관광기념품 공모전'을 개최한다고 17일 밝혔다. 올해 공모전 대상은 민․공예품, 공산품 및 가공식품 등이다. 공모전 출품을 원하는 업체 및 개인은 7월 1일부터 7월 10일까지 참가신청서와 함께 출품작을 제주특별자치도관광협회(제주종합비지니스센터 1층 관광기념품 홍보관)로 접수하면 된다. 출품작은 관련분야 전문가로 구성된 심사위원단과 인터넷 신청을 통해 모집한 일반인 평가단의 심사를 거친다. 제주도는 출품작 중 총 19점을 입상작으로 선정해 7월말 최종 결과를 발표할 예정이다. 심사기준 및 배점은 상품성 60점, 디자인 20점, 창의 및 실용성 10점, 품질수준 5점, 일반인 평가 5점이며, 올해는 일반인 심사 항목을 신설해 도민의 정책 참여도를 높이고 심사의 객관성을 확보할 예정이다. 공모전 입상작에 대해 총 2450만원의 상금(대상 1인 500만원, 금상 2인 각 300만원, 은상 3인 각 200만원, 동상 4인 각 100만원, 장려 4인 각 50만원, 입선 5인 각 30만원)이 수여되며, 수상순위 내 10명을 대상으로 상품개발 자금 지원 특전도 주어진다. 또 수상자 전원을 대상으로 도내 홍보관 전시와 온라인 마켓 탐나오 입점 및 판매지원, 대형박람회 참가, 지식재산권 국내출원 비용 등 지원과 상품화 기법 특강 등을 실시할 계획이다. 강영돈 제주도 관광국장은 "매력적이고 우수한 관광기념품 발굴은 제주의 관광산업의 경쟁력 강화와 연결 된다"며 "이번 공모전에서 선정된 작품의 상품개발 및 홍보 지원을 통해 제주를 대표할 차세대 관광기념품 개발에 힘쓸 예정"이라며 도내 우수 개인과 기업의 많은 참여를 당부했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 조직 개편..관광국.교통국 통폐합 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항뉴스데스크제주도, 조직 개편..관광국.교통국 통폐합 오승철2020년 06월 19일 20시 10분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도가 대대적인 조직개편을 예고했습니다. 제주도는 4년 전 신설한 관광국을 문화체육대외협력국과 통합하고 교통항공국을 도민안전실과 합쳐 안전교통실로 개편하는 등 2개국, 2개과를 감축하는 내용의 조직개편안을 입법예고했습니다. 또 제주시에서 1개 과가, 서귀포시는 1개국과 2개 과가 축소되고 공무원 정원은 6천164명에서 6천 140명으로 24명 줄어듭니다. 제주도는 오는 25일까지 의견을 수렴한 뒤 다음 달 임시회에 조직개편안을 제출할 계획입니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도, 조직 개편..관광국.교통국 통폐합 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도 ‘관광국’ 폐지...‘관광1번지’ 위상 추락 &lt; 제주특별자치도의회 소식 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 ‘관광국’ 폐지...‘관광1번지’ 위상 추락 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주특별자치도의회 소식 제주도 ‘관광국’ 폐지...‘관광1번지’ 위상 추락 기자명 진순현 기자 입력 2020.06.17 14:55 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 도민 70% 이상 관광으로 먹고 살아코로나19 핑계 읍면동· 축제·박람회 예산 1670억 ‘삭감’ 제주도의회 양영식 의원제주도민 70%가 관광서비스업에 종사하고 있는 반면 제주도가 행정조직 안에 관광국을 폐지하기로 밝혀 제주도의회에서 코로나19 추경과 함께 질타가 이어졌다.17일 속개된 제주도의회 문화관광체육위원회(위원장 이경용) 제383회 1차 정례회 2차 회의에서 도의원들은 관광국을 없애겠다는 것은 코로나19 이후로 제주관광을 사실상 포기하겠다고 선언한 것이라고 비판을 제기했다.이날 양영식 의원(더불어민주당, 제주시 연동갑)은 강영돈 제주도 관광국장을 상대로 한 질의에서 “포스트 코로나로 인해 관광국 폐지한다는 건 말이 안된다”고 밝혔다.양 의원은 “이는 무척 위험한 발상”이라며 “도민 70% 이상이 관광으로 먹고 산다“고 당장 철회할 것을 건의했다.제주도의회 문종태 의원이어진 질의에서 문종태 의원(더불어민주당, 일도1·이도1·건입동)은 현경욱 문화체육대외협력국장을 상대로 “제주도가 코로나19로 세입·세출이 전부 감소됐다”며 “실상은 올해 예상됐던 3000억 적자를 보전하기 위해 만만한 축제 등 문화 행사 취소 등으로 메꿀려는 꼼수가 보인다”고 지적했다.문 의원은 “실제로 내용을 봐도 코로나 추경이 아니”라며 “제주형 1차 긴급재난기금이 150억 남았다. 읍면동 예산 및 축제·박람회·세미나 등 각각 470억과 1200억 삭감했다. 이 돈이라면 남은 기간 코로나 추경 없이 충분히 도민에게 지원될 수 있을 것”이라고 설명했다.최근 제주도는 3700억원 규모의 2차 추경을 준비하고 있다. 이 가운데 세입 833억원을 제외하면 2868억원이 부족한 상태다. 결국 1820억원을 뺀 나머지 돈은 1000억원 정도다.문 의원은 “하지만 지난해 도가 예산부서가 잘못 짜고선 도내 관광·문화 예술인들만 희생을 당하고 있다”며 “오죽했으면 얼마 전 50여개 업체들이 모인 제주행사대행업 비상대책위원회가 살려달라고 성명 내고 그러겠냐. 제주 역사상 처음 있는 일”이라고 일침을 가했다.이어 문 의원은 “특히 축제·박람회·세미나 등은 제주경제와 바로 연계되는 사업이라고 생각하지 않는냐”며 “축제 때 도민과 관광객들이 오면 소비한다. 아울러 실제 경제효과는 10배 이상이라는 게 전문가들의 의견”이라고 말했다. 그러면서 “(우리) 문광위는 앞으로 추경과 관련 심의할 게 없다”고 선을 그었다.이에 현경욱 문화체육국장은 “문화 행사를 전부 삭감하는 게 아니”라며 “대원칙은 연말까지 이어지는 생활 속 거리두기를 고려한 도민 안전이 최우선이다. 칼로 물 베기 같은 삭감 개념 아닌 다른 방법을 고민하고 있다”고 답변했다. 그러자 문 의원은 "만약 그렇다면 제주도가 주최하는 탐라문화재는 안 할 거냐"며 "그건 등은 할 건 아니냐. 물타기로 넘어가려 하지 말라"고 직격했다.이경용 위원장도 “국장은 문화체육대외협력국을 대변해야 할 입장인데 지금 모습은 예산담당관이 된 것 같다”고 지적하자 현 국장은 “오해가 있다면 사과하겠다”고 말끝을 흐렸다. 진순현 기자 jinjin3808@naver.com 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 원희룡 2020-06-19 15:04:01 더보기 삭제하기 누가 관광으로만 먹고 살더냐? 우근민원희룡의 땅값뻥투기로 땅가진 사람들이 땅 팔아서 땅땅거라며 잘 살고 있는데 쓸데없는 소리 하지마! 답글쓰기 1 0 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 문화관광해설사라면 꼭 알아둬야 할 제주어 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 문화관광해설사라면 꼭 알아둬야 할 제주어 파이낸셜뉴스입력 2020.06.08 15:40수정 2020.06.08 15:40 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주대 국어문화원, 제주어 강좌 운영…총론·제주문화특강·현장답사 진행 제주대학교 전경 /사진=fnDB [제주=좌승훈 기자] 제주대학교 국어문화원(원장 배영환)은 오는 23일부터 제주도와 함께 문화관광해설사를 대상으로 제주어 교육에 나선다. 지난해에 이어 두 번째로 진행되는 제주어 강좌는 ▷‘제주어 총론’ 등 제주어 강연 14회 ▷‘음식문화와 제주어’ 등 제주문화 특강 4회 ▷‘굿판’ 등 현장 답사를 통해 배우는 제주어 4회로 총 22강·78시간으로 구성됐다. 강의는 매주 화·목요일에 집중적으로 진행되며, 장소는 제주대 인문대학 2호관이다. 배영환 원장은 “문화관광해설사의 제주어 구사 능력 향상과 문화관광해설사들이 제주어 관련 활동을 하는 데 도움을 줄 수 있을 것으로 교육 내실화에 역점을 두겠다”고 밝혔다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>관광업계 이어 해녀들도 "제주도 하반기 조직개편 반대" - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 관광업계 이어 해녀들도 "제주도 하반기 조직개편 반대" 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 헤드라인1 관광업계 이어 해녀들도 "제주도 하반기 조직개편 반대" 현대성 기자 승인 2020.06.24 16:55 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주일보 사진자료 ‘관광국’ 폐지에 대한 도내 관광업계와 도의회의 반발이 거센 가운데 ‘해녀문화유산과’가 해양산업과와 통합되는 방안을 두고도 반발의 목소리가 일고 있다. 24일 제주도 등에 따르면 도내 일부 어촌계와 해녀를 중심으로 최근 제주도청에 해녀유산과 통폐합을 반대하는 항의 방문이 잇따른 것으로 알려졌다. 이들은 제주도의 하반기 조직 개편안대로 해녀문화유산과가 해양산업과와 통합되면 제주 해녀문화 진흥 업무에 지장이 생길 것을 우려하고 있는 것으로 파악됐다. 이기철 제주도 어촌계장연합회장은 24일 본지와의 통화에서 “유네스코 문화유산 지정 당시 원 지사가 77억 명 세계인에게 해녀문화 지원을 공언한 바 있다”며 “해녀문화유산과 통폐합은 그런 약속에 배치되는 조직 개편안”이라고 반발했다. 이기철 연합회장은 이어 “해녀문화유산과와 통합되는 해양산업과는 업무가 굉장히 많고 과중된 부서”라며 “예정대로 두 부서가 통합될 경우 해녀문화유산 관련 업무는 등한시될 수 밖에 없다”고 우려했다. 제주도 어촌계장연합회 등 도내 어촌계 관련 단체와 해녀 1500명은 26일 오전 10시 제주도청 앞에서 집회를 열고 해녀문화유산과 통폐합 백지화를 요구하는 기자회견을 개최할 예정이다. 해녀문화유산과 폐지에 대한 우려는 제주도의회에서도 제기됐다. 이승아 제주도의회 의원(더불어민주당·제주시 오라동)은 지난 22일 제383회 정례회 제주도의회 예산결산특별위원회 회의에서 “원희룡 지사님도 제주 해녀문화 유네스코 인류 문화 등재를 자랑하시고 치적했던 것으로 기억하는데 해녀문화유산과 폐지에 대해 아무런 발언이 없다”며 “이대로 가면 제주도가 해양문화유산과 폐지 방안을 그대로 따라간다고 생각할 수 밖에 없다”고 지적했다. 이와 관련, 조동근 제주도 해양수산국장은 “해녀문화유산과 폐지에 공감하지 않는다. 해녀문화유산은 제주도가 대외에 자랑스럽게 내놓을 수 있는 유일한 자산”이라고 설명했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 관련기사 道, 조직 개편안 확정…관광국·해녀과 “현행 유지” 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>국내 관광객들, 이른 여름 즐기고자 제주도 서귀포 펜션 찾아 &lt; 보도자료 &lt; 기사본문 - 투데이코리아 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 2022-10-11 14:01 (화) 홈 로그인 회원가입 전체기사 지면보기 2022.10.11(화) 서울 ℃ 미세먼지 B 경기 8.1℃ 미세먼지 B 인천 ℃ 미세먼지 B 광주 ℃ 미세먼지 B 대전 ℃ 미세먼지 B 대구 ℃ 미세먼지 B 울산 ℃ 미세먼지 B 부산 11.6℃ 미세먼지 B 강원 ℃ 미세먼지 B 충북 ℃ 미세먼지 B 충남 8.2℃ 미세먼지 B 전북 ℃ 미세먼지 B 전남 ℃ 미세먼지 B 경북 10.9℃ 미세먼지 B 경남 ℃ 미세먼지 B 제주 16.1℃ 미세먼지 B 세종 ℃ 미세먼지 B 전체메뉴 버튼 4차산업 6차산업 산업이슈 대기업 유통/생활경제 자동차 IT/스마트폰 건설 산업일반 경제·금융 경제일반 금융 증권 부동산 정책 사회 사회일반 사건·사고 법원·검찰 전국 인사 부고 정치 청와대 국회·정당 정치일반 오피니언 투코칼럼 귀촌다이어리 기자수첩 인터뷰 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 국내 관광객들, 이른 여름 즐기고자 제주도 서귀포 펜션 찾아 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 보도자료 국내 관광객들, 이른 여름 즐기고자 제주도 서귀포 펜션 찾아 기자명 박영배 기자 승인 2020.06.16 14:33 수정시간 2020.06.16 14:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 해외 이동 제한되며 제주도 여행객 늘어나.. 호텔 분위기 펜션 인기 상승 투데이코리아=박영배 기자 | 아름다운 유채꽃이 장관을 이루는 제주도는 올해 코로나 19 사태에도 불구하고 관광객들이 많이 찾는 관광명소다. 특히 해외로 이동이 제한된 지금, 이른 여름을 즐기고자 많은 관광객들의 방문이 예상되는 제주도는 우리나라 최고의 관광명소인 만큼 호텔, 게스트하우스, 펜션 등 다양한 형태의 숙소가 발달되어 있다. 특히 관광객들은 제주도의 자연과 어울리는 아름다운 풍경을 감상하고자 제주도 서귀포 내 펜션을 찾는 편이다. 그 중 아이로제주펜션(IRO Jeju)은 호텔 분위기의 트렌디한 디자인과 대평리의 멋진 풍경이 조화를 이루고 있어 주목 받는다. ▲ 아이로제주펜션은 영화 ‘나쁜놈은 죽는다’의 촬영 장소로 활용될 만큼 아름다운 풍경과 시설을 자랑한다. 특히 외부의 자연적인 풍경을 편안한 분위기에서 즐길 수 있도록 내부에는 각방에 개별 테라스에서 비장탄 숯 바비큐를 즐길 수 있는 시설이 마련되어있다. 또한 중문관광 단지에서 10분거리에 위치하고, 서귀포 관광지를 차량으로 20분 내에 방문 가능해 접근성 또한 용이한 것이 해당 펜션의 장점이다. 아이로제주펜션 관계자는 “제주도 숙소 중 어느 곳과 비교해도 좋은 시설과 아름다운 자연환경을 갖추고 있기 때문에 다가오는 휴가 시즌에 관광객들의 많은 예약이 예상된다”며 “특히 가족과 커플을 위한 제주도 서귀포 펜션으로 큰 인기를 얻고 있다”고 말했다. 관련기사 올 여름휴가 국내로 몰릴 듯...“이 ‘10가지’ 안전수칙만 지키세요” "여행은 코로나19 안전한 한국으로”… 美 `한국여행 선호도` 향상 박영배 기자 press@todaykorea.co.kr 투데이코리아는 언제나 독자 여러분들의 제보를 기다립니다. 저작권자 © 투데이코리아 무단전재 및 재배포 금지 많이 본 기사 1 [인터뷰] 김병기 아이들과미래재단 본부장 “아이들이 미래를 꿈꿀 수 있는 세상을 만들고 싶다” 2 [김성기 칼럼] 대우조선 ‘연명 지원’ 중단해야 3 “사회적 합의 이행됐다” 법원, 민주노총 주장 ‘전면 반박’ 4 검찰, ‘불법 외환거래’ 가담자 9명 기소 5 에듀윌 ‘GSAT 온라인 모의고사’ 무료 배포 6 문체부 ‘윤석열차’ 경고에 이수진, “尹 대통령 입에 달고 사는 ‘자유’ 침해” 7 윤홍근 제너시스BBQ 회장 "패밀리 지원 강화..본사가 안고 간다" 8 bhc그룹, ‘창고43 잠실점’ 오픈 9 [국정감사] ‘윤석열차’ 논란에 與·野 공방…박보균 “블랙리스트와 비교할 성격 아니다” 10 박지원 李 대표에게 민주당 복당 내색 비춰...“정치 여정 큰 실수는 ‘安 국민의당’ 합류” 투코칼럼 [김태문 칼럼] ‘전력 공공기관’ 경영난, 임직원들도 책임 크다 [김성기 칼럼] 대우조선 ‘연명 지원’ 중단해야 [전문가 포커스] 피와 땀과 눈물로 일군 K-방산의 성공스토리 [권순직 칼럼] 포퓰리즘, 망국(亡國)으로 가는 길 [박현채 칼럼] 경제 주체 모두 허리띠 졸라 매야 [전문가 포커스] ‘見危授命’을 생각케한 백선엽장군 추모음악회 [데스크칼럼] 재계의 연이은 RE100 선언에 에너지정책 재정비 시급 [김성기 칼럼] 정치권 진흙탕 싸움에 매몰된 민생경제 [권순직 칼럼] 고소 고발 공화국 [전문가 포커스] 英여왕 서거에 ‘노블레스 오블리주’를 생각한다 [박현채 칼럼] 집값, 대세 하락기 돌입 [기고] 물리치료 교육학제일원화로 안전하고, 질 높은 물리치료 서비스 제공 토대 마련해야 조은경 귀촌다이어리 [조은경의 귀촌주부 다이어리] 행복했습니다 기자수첩 [기자수첩] “리튬發 ‘제2의 요소수 대란’ 막으려면…” 정부 노력 절실하다 [기자수첩] 환율 뉴노멀 시대 ‘성큼’···한국은행도 선진국형 경제 정책 제시해야 [기자수첩] 농민 배려 이용한 ‘가짜 농민’…‘돈’에 양심 팔아 넘기나 [기자수첩] ‘정치병’ 걸려 폄하된 ‘미투’의 소리없는 고통 하단영역 하단메뉴 매체소개 윤리강령 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 강남대로 310 ,906 ,907 대표전화 : 0707-178-3820 팩스 : 0707-178-3829 법인명 : (주)투데이코리아 제호 : 투데이코리아 사업자등록번호 : 254-86-00111 등록번호 : 서울 아 00214 등록일 : 2006-06-12 발행일 : 2006-06-12 발행·편집인 : 민은경 주필 : 박현채 논설주간 : 권순직 청소년보호책임자 : 김웅 투데이코리아 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 투데이코리아. All rights reserved. mail to press@todaykorea.co.kr 인터넷 윤리강령을 준수합니다. 위로 전체메뉴 전체기사 4차산업 6차산업 산업이슈 전체 대기업 유통/생활경제 자동차 IT/스마트폰 건설 중기/화학 산업일반 경제·금융 전체 경제일반 금융 증권 정책 부동산 사회 전체 사회일반 사건·사고 법원·검찰 전국 인사 부고 정치 전체 대통령실 국회·정당 정치일반 오피니언 전체 투코칼럼 귀촌다이어리 기자수첩 인터뷰 Series News 전체 보도자료 Investigative News Special News 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 공공시설-공영관광지 개방 2주 연기 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:42 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 실업급여 신청자↓, 재취업률↑...제주 고용시장 회복세 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 공공시설-공영관광지 개방 2주 연기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 공공시설-공영관광지 개방 2주 연기 기자명 이승록 기자					(leerevol@naver.com) 입력 2020.06.01 12:11 댓글 2 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 6월4일 시범운영서 18일로 연기...완전 개방도 7월6일 한라도서관 전경 제주지역 공공시설‧공영 관광지의 시범 운영이 2주 연기됐다.제주도는 당초 6월4일부터 사전예약제, 정원 제한 등 시설별 철저한 방역 준비를 전제해 최소 범위 내에서 부분 개방에 돌입할 계획을 세웠다. 하지만 지난 주말 제주도내 코로나19 15번째 확진자가 발생한데 이어 제주 여행을 한 단체여행객이 군포 지역에서 확진 판정을 잇달아 받음에 따라, 제주도는 방역 최우선 관점에서 긴장 태세를 이어가겠다는 조치다. 제주도는 앞서 ‘제주형 생활 속 거리두기’관련 브리핑을 통해 공공이 운영하는 미술관, 도서관, 실내 공영관광지 등에 대해 3단계 단계적 개방 방침을 세웠으나, 앞으로 최대잠복기 14일을 고려해 2주간 더 휴관 조치 등을 시행할 방침이다. 원희룡 지사는 “제주도는 외부 유입이 많은 섬 지역의 특성을 고려해 일률적인 거리두기가 아니라 추가 확진자 발생이나 기존보다 위험도가 커지면 전 단계로 복귀한다는 원칙이기 때문에, 제주는 전국보다 2주일 정도 더 늦게 생활 속 방역을 추진할 계획”이라고 설명했다. 이에 따라 오는 6월4일부터 이뤄질 것으로 예상된 시범 운영은 6월18일부터 시행될 예정이며, 오는 6월22일로 잠정 예상 중인 개방 확대도 7월6일에야 가능할 것으로 전망하고 있다. 앞으로 도내 공공시설들은 밀집도와 실내외, 밀폐 여부 등 시설별 상황을 고려해 운영 계획을 보완할 예정이며, 시범 운영 시에는 기존 방침대로 사전 예약제‧정원 제한 등을 통해 수용 인원의 절반 규모로 입장이 이뤄진다. 각종 행사를 비롯한 회의도 가급적 영상 및 서면·전화 등을 적극 활용하도록 권고하고, 불가피한 경우에는 소규모 행사만 개최하는 등 참석 인원을 최소화하고 시간을 단축해 운영하는 한편, 방역지침을 철저히 준수해 운영하는 방안이 유지된다. 개방 확대에 대해서는 분야별 세부 계획을 마련한 뒤 시범 개방 운영 상황을 지켜본 후, 생활방역위원회 최종 결정을 거쳐 정상 운영 방안 등을 결정할 방침이다. 한편 제주도는 지난 29일 오후 4시 도 재난안전대책본부 상황실에서 최승현 행정부지사 주재로 제주형 생활방역위원회는 1차 회의를 갖고 생활 속 거리두기 이행상황을 공유하고, 공공시설 단계별 개방 시기 등을 논의했다.이날 회의에서도 최근 수도권에서 발생한 산발적 집단감염 확산을 차단하기 위해 도내 공공시설 개방 시기 결정은 보다 철저한 준비 절차 와 상세 세부계획 마련 후 개방하는 것으로 협의한 바 있다. 또한 지난 31일 원희룡 도지사 주재로 긴급회의를 개최하며 도민과 관광객의 불안감을 최소화할 수 있도록 확진자와 관련된 동선에 대한 무료 검사 지원, 공공시설 개방 보류 등을 논의한 바 있다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 스마트한 관제로 도민·관광객 지킨다 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 투비소프트 상승, 투비디티엑스-키월드 MOA 체결 [특징주] 대화제약 주가 하락 '요오드 관련주 수혜 끝났나' [급등주] 켐온, 코아스템과 흡수합병 진행 '27%↑' [특징주] 나노씨엠에스 주가 급등 '바이러스 사멸램프 성능 소개' [특징주] 해성산업 주가 상승 '계양전기 투자부문 분할흡수합병' [급등주] SCI평가정보 상승, 한은 두 번째 빅스텝 전망 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' 2022-10-11 14:38 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 스마트한 관제로 도민·관광객 지킨다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 스마트한 관제로 도민·관광객 지킨다 기자명 문서현 기자 입력 2020.06.03 11:33 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 생활안전사각지대·어린이보호구역등에 스마트관제 3,000여대 추가 도입 (제주=국제뉴스) 문서현 기자 = 제주도가 스마트 선별관제시스템을 영상분석기술을 이용해 위기에 처한 도민과 관광객을 지킨다. 3일 제주도에 따르면 CCTV영상을 선별 표출하는 인공지능을 활용한 스마트 선별관제시스템을 도입해 신속한 위기상황에 대응하고 육안 관제의 한계를 극복하는 한편 관제요원들의 효율성을 확보하고 있다고 밝혔다. 지난해에는 읍면동 생활안전사각지대 방범용 CCTV 1,000대, 어린이 안전을 위하여 설치된 초등학교 CCTV 1,000여 대에 스마트 선별관제시스템을 적용해 운영해 왔다. 올해에는 생활안전사각지대, 어린이보호구역 등 제주도민과 어린이, 제주를 방문하는 관광객의 안전을 위하여 3,000여 대의 CCTV에 스마트 선별관제시스템을 적용하여 운영할 계획이다. 향후 제주CCTV관제센터에서 관리하고 있는 모든 CCTV에 대해서도 스마트 선별관제를 점차적으로 확대 해 나갈 계획이다. 제주도 이중환 도민안전실장은 “매년 CCTV 설치가 증가하고 있는 만큼 인공지능 이벤트 분석 시스템인 스마트 선별관제시스템 마련이 필요하다”며 “이상 징후가 있는 상황을 감지해 효율적인 모니터링과 신속한 조치를 함으로써 각종 사건·사고의 효율적 예방과 신속한 대응에 도움이 될 것”이라고 밝혔다. 키워드 #제주도 #생활안전사각지대 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 대화하는 이재명-박홍근 발언하는 이재명 더불어민주당 대표 최신뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 대화하는 이재명-박홍근 포토뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제23회 제주도 관광기념품 공모전 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제23회 제주도 관광기념품 공모전 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제23회 제주도 관광기념품 공모전 개최 고경호 기자 승인 2020.06.17 11:15 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주특별자치도관광협회가 제주를 대표할 차세대 관광기념품을 찾는다. 제주도는 제주의 문화, 먹거리, 관광명소 등을 반영한 대표 관광기념품을 발굴ㆍ육성하고자 ‘제23회 제주특별자치도관광기념품 공모전’을 개최한다고 17일 밝혔다. 올해 공모전 대상은 민ㆍ공예품, 공산품 및 가공식품 등이다. 공모전 출품을 원하는 업체 및 개인은 오는 7월 1일부터 7월 10일까지 참가신청서와 함께 출품작을 제주특별자치도관광협회(제주종합비지니스센터 1층 관광기념품 홍보관)로 접수하면 된다. 출품작은 관련분야 전문가로 구성된 심사위원단과 인터넷 신청을 통해 모집한 일반인 평가단의 심사를 거친다. 제주도는 출품작 중 총 19점을 입상작으로 선정해 7월말 최종 결과를 발표할 예정이다. 심사기준 및 배점은 상품성 60점, 디자인 20점, 창의 및 실용성 10점, 품질수준 5점, 일반인 평가 5점이며, 올해는 일반인 심사 항목을 신설해 도민의 정책 참여도를 높이고 심사의 객관성을 확보할 예정이다. 공모전 입상작에 대하여 총 2450만원의 상금(대상 1인 500만원, 금상 2인 각 300만원, 은상 3인 각 200만원, 동상 4인 각 100만원, 장려 4인 각 50만원, 입선 5인 각 30만원)이 수여되며, 수상순위 내 10명을 대상으로 상품개발 자금 지원 특전도 주어진다. 또 수상자 전원을 대상으로 도내 홍보관 전시와 온라인 마켓 탐나오 입점 및 판매지원, 대형박람회 참가, 지식재산권 국내출원 비용 등 지원과 상품화 기법 특강 등을 실시할 계획이다. 강영돈 제주도 관광국장은 “매력적이고 우수한 관광기념품 발굴은 제주의 관광산업의 경쟁력 강화와 연결된다”라며 “이번 공모전에서 선정된 작품의 상품개발 및 홍보 지원을 통해 제주를 대표할 차세대 관광기념품 개발에 힘쓸 예정”이라고 밝혔다. 고경호 기자  kkh@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 고경호 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 스마트한 관제로 도민·관광객을 지킨다 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 스마트한 관제로 도민·관광객을 지킨다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 스마트한 관제로 도민·관광객을 지킨다 기자명 김연화 기자 입력 2020.06.03 17:35 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 생활안전사각지대·어린이보호구역등에 스마트관제 3,000여대 추가 도입 제주특별자치도청사 전경 [시사매거진/제주=김연화 기자] 제주특별자치도는 스마트 선별관제시스템 영상분석기술을 이용해 사람·차량 등 관제대상에 따라 움직이며 CCTV영상을 선별 표출하는 인공지능을 활용한 스마트 선별관제시스템을 도입하여 신속한 위기상황에 대응하고 육안 관제의 한계를 극복하는 한편 관제요원들의 효율성을 확보하고 있다. 지난해에는 읍면동 생활안전사각지대 방범용 CCTV 1,000대, 어린이 안전을 위하여 설치된 초등학교 CCTV 1,000여 대에 스마트 선별관제시스템을 적용하여 운영해 왔다. 올해에는 생활안전사각지대, 어린이보호구역 등 제주도민과 어린이, 제주를 방문하는 관광객의 안전을 위하여 3,000여 대의 CCTV에 스마트 선별관제시스템을 적용하여 운영할 계획이며, 향후 제주CCTV관제센터에서 관리하고 있는 모든 CCTV에 대해서도 스마트 선별관제를 점차적으로 확대 해 나갈 계획이다. 제주특별자치도 이중환 도민안전실장은 “매년 CCTV 설치가 증가하고 있는 만큼 인공지능 이벤트 분석 시스템인 스마트 선별관제시스템 마련이 필요하다”며 “이상 징후가 있는 상황을 감지해 효율적인 모니터링과 신속한 조치를 함으로써 각종 사건·사고의 효율적 예방과 신속한 대응에 도움이 될 것”이라고 밝혔다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 11년만 조직 축소 개편안 발표…관광국 폐지 두고 도의회 '우려' - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 11년만 조직 축소 개편안 발표…관광국 폐지 두고 도의회 '우려' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 헤드라인4 제주도, 11년만 조직 축소 개편안 발표…관광국 폐지 두고 도의회 '우려' 현대성 기자 승인 2020.06.19 20:03 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도가 11년 만에 조직 및 정원을 감축하는 조직개편안을 발표했다. 특히 이 조직 개편안은 '관광 1번지' 제주의 위상을 높이기 위해 4년 전 신설했던 관광국을 문화체육대외협력국으로 흡수하는 내용을 포함하고 있어 반발 여론이 일고 있다. 제주도는 19일 '제주특별자치도 행정기구 설치 및 정원 조례 일부개정조례안'을 입법예고했다. 이 조례 개정안은 현행 제주도 행정조직 15개 국(局) 60개 과(課)를 13개 국, 58개 과로 축소하는 내용을 골자로 하고 있다. 제주시는 1개 과, 서귀포시는 1개 국 2개 과를 감축하는 내용이 포함됐다. 이에 따라 공무원 정원도 6164명에서 6140명으로 24명 감축된다. 주요 내용을 보면 관광국이 문화체육대회협력국과 통합돼 '문화관광국'으로 변경된다. 제주도는 관광국 폐지에 대한 우려를 씻기 위해 향후 관광공사, 관광협회 등을 연계해 총괄하는 '관광청' 신설을 단계적으로 검토한다. 또 도민안전실과 교통항공국이 '안전교통실'로 통합되며 국 단위 임시 기구로 운영하던 특별자치제도추진단이 특별자치행정국 산하 특별자치분권과로 편입된다. 정무부지사 산하에 있던 공보실은 도지사 산하 대변인실로 개편되며, 행정부지사 직속 기구였던 도시디자인담당관은 그간 컨트롤타워 역할을 제대로 하지 못 했다는 비판을 피하지 못 한 채 도시건설국 산하 도시디자인과로 흡수된다. 이 밖에 4·3지원과와 평화대외협력과가 통합해 4·3평화과로 확대 개편된다. 일자리경제통상국 산하 일자리과와 경제정책과과 일자리경제과로 통합되고 관광국 산하 투자유치과가 통상물류과와 통합돼 투자통상과로 변모한다. 또 해양산업과와 해녀문화유산과는 해양해녀문화과로 통합돼 해녀 육성은 물론 청정 해양과 해녀문화의 가치 창출을 전담한다. 제주도는 도민 건강을 수호하고 감염병 위기 대응 역량을 강화하기 위해 보건건강위생과에는 전염병 예방 전담팀 및 역학조사 전문 인력을 보강할 계획이다. 이에 더해 도민에게 양질의 고용서비스를 제공하기 위해 고용센터와 서귀포지소를 신설, 취업알선과 서귀포시민 편의를 도모한다. 행정시에서 대행해 오던 읍면동 감사업무도 감사위원회 산하 읍면동감사팀이 수행하게 된다. 이번 조직개편안은 오는 25일까지 의견수렴 과정을 거쳐 오는 7월 도의회 심의를 받을 예정이다 현대성 제주도 기획조정실장은 “코로나19로 인한 경기 위축 및 재정여건 악화 등 비상체계에 따른 과감한 조직 축소를 통해 선제적 구조 개혁으로 도민들에게 신뢰를 얻는 작지만 강한 조직을 만들기 위해 민선7기 후반기 조직개편을 실시하게 됐다”고 말했다. 한편 제주도의회는 이와 같은 조직 개편안에 대해 지속적으로 반대 목소리를 내고 있다. 19일 열린 제383회 제1차 정례회 예산결산특별위원회 회의에서도 의원들은 관광국 폐지가 관광 산업 컨트롤타워를 약화시킬 수 있다고 우려했다. 이날 이승아 의원(더불어민주당·제주시 오라동)은 "제주도가 4년 전 전국에서 선도적으로 관광국을 신설했고 서울, 부산 등 다른 지자체에서 따라하고 있다"며 "그런데 제주도가 관광국을 문화대외협력국과 통합하려 한다. 거꾸로 가고 있다"고 제주도의 관광국 폐지 방안을 지적했다. 박호형 의원(더불어민주당·제주시 일도2동갑)도 "관광산업을 강화하는 것이 제주도의 지역경제를 살리는 일인데, 관광국을 폐지하는 방안이 우려스럽다"며 "주력사업인 관광을 포기해 버리면 제주도가 무엇으로 먹고 살아야 할 지 의문"이라고 피력했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도1박2일코스, 18개의 오름부터 체험관광 ‘제주이야기’까지 여행의 모든 것 송당마을 &lt; 생활·문화 &lt; 생활·문화 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 13:35 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도1박2일코스, 18개의 오름부터 체험관광 ‘제주이야기’까지 여행의 모든 것 송당마을 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활·문화 생활·문화 제주도1박2일코스, 18개의 오름부터 체험관광 ‘제주이야기’까지 여행의 모든 것 송당마을 기자명 장성길 입력 2020.06.12 15:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주시를 중심으로 동쪽에 자리잡고 있는 전형적인 중산간 마을인 구좌읍 송당리는 대중교통 전면 개편과 함께 제주 중산간지역을 촘촘하게 연결하는 관광지 순환버스가 운행되면서 접근성이 좋아졌다.  제주도내 368개 오름 중 가장 높은 ‘높은오름’(405.3m)을 비롯한 18개의 오름이 자리잡고 있으며 풍림다방으로 대표되는 독특한 유형의 카페와 음식점, 실내체험관광지 ‘제주이야기’에서는 제주도 천연꽃으로 천연향수와 천연 화장품을 만들어보고 제주색이 물씬 담긴 기념품을 고르는 것도 색다른 즐거움이다.‘제주이야기’는 제주도 체험 실내관광지로 구좌읍가볼만한곳으로 추천되는 비자림 근처 풍림다방 바로 앞에 송당점과 월정리 해변인근 행원본점 두 군데를 운영하고 있다.  실내에 자리하고 있어 날씨에 구애받지 않고 쾌적한 체험이 가능하며 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능하다는 것이 장점으로, 어린 자녀를 동반한 가족여행객들의 제주도1박2일코스로 많이 추천되고 있다.  특히 향수는 동백, 수국, 수선화, 장미 등 제주자생 꽃과 천연오일 등 보존제가 전혀 들어가지 않은 천연원료로 만들어 어린이도 부담 없이 만들고 사용할 수 있다. .체험상품으로는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’가 있다. 또한 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 최근 신제품 립오일을 출시한 기능성 화장품, 예쁜 젤 캔들 등 다양한 제주도 기념품까지 구매할 수 있다.  업체 관계자는 “제주도 천연꽃으로 향수와 화장품을 만드는 체험은 제주도에서 할 수 있는 특별한 체험으로 구좌읍가볼만한곳으로 입소문을 타고 있고 연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”고 말했다.  이어 “특히 내 손으로 직접 만들어 세상에 단 하나뿐인 향수라는 특별한 의미가 더해져 선물용으로 만족도가 높은 편”이라고 전했다.  한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 장성길 news@pcss.co.kr 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 최신뉴스 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 포토뉴스 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 인기뉴스 1 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 2 성범죄 가장 많이 발생한 철도역사는 '수원역' 3 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 4 전라남도의회, 제366회 임시회 12일 개회 5 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 6 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 7 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 8 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광국 폐지·문화예술 행사 예산 삭감 연일 도마 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도 관광국 폐지·문화예술 행사 예산 삭감 연일 도마 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 도의회 제주도 관광국 폐지·문화예술 행사 예산 삭감 연일 도마 현대성 기자 승인 2020.06.19 16:05 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 관광국을 문화체육대회협력국에 흡수시키는 제주특별자치도의 하반기 조직개편안이 연일 제주도의회에서 도마에 올랐다. 제주특별자치도의회 예산결산특별위원회(위원장 송영훈, 더불어민주당, 서귀포시 남원읍)는 19일 제383회 정례회를 속개하고 2019 회계연도 결산 승인의 건 등과 예비비 지출 승인의 건 등을 심사했다. 이날 이승아 의원(더불어민주당·제주시 오라동)은 "제주도가 4년 전 전국에서 선도적으로 관광국을 신설했고 서울, 부산 등 다른 지자체에서 따라하고 있다"며 "그런데 제주도가 관광국을 문화대외협력국과 통합하려 한다. 거꾸로 가고 있다"고 제주도의 관광국 폐지 방안을 지적했다. 박호형 의원(더불어민주당·제주시 일도2동갑)도 "관광산업을 강화하는 것이 제주도의 지역경제를 살리는 일인데, 관광국을 폐지하는 방안이 우려스럽다"며 "주력사업인 관광을 포기해 버리면 제주도가 무엇으로 먹고 살아야 할 지 의문"이라고 피력했다. 이날 회의에서는 제주도가 제2차 추가경정예산안 재원 마련을 위해 하반기 행사성 예산을 사실상 전면 삭감한 것을 두고도 문화예술인 지원 방안이 필요하다는 목소리가 나왔다. 양영식 의원(더불어민주당·제주시 연동갑)은 "문화예술인들과 정책 간담회를 진행했는데, 도정에서 전혀 관계자와 소통을 하지 않는다는 지적이 있었다"며 "행정이 일방적으로 예산을 삭감해 도민들을 절망에 빠뜨리고 있다"고 지적했다. 이상봉 의원(더불어민주당·제주시 노형동을)도 "문화예술 행사 예산도 나름대로 도내에서 역할을 하고 있는 예산인데, 강 대 강으로 행사 예산을 삭감하는 것은 슬기로운 방법이 아니"라며 "일상 속 위기대응은 필요하지만 모든 것을 삭감하면서 도민 사회를 위축시킬 필요는 없지 않느냐"고 지적했다. 이와 관련, 최승현 제주도 행정부지사는 "지출 구조조정과 조직 개편과 관련해 제시된 다양한 의견을 수렴하고 검토하겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 관련기사 세출 구조조정 놓고 도-의회 갈등 심화 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
   <si>
     <t>[트렌드톡톡] 국내 관광 활기 되찾기 시작…제주도 힐링 여행 떠나요 - SBS Biz</t>
   </si>
   <si>
-    <t>제주도 여행객 코로나 확진자 동선공개..유명관광지·식당·카페 등 접촉자만 119명 | 한국정경신문 맑음 SEOUUL JAYANGDONG 17 제목 내용 작성자 제목+내용 서치 로그인 마이페이지 로그아웃 회원가입 로그인 전체 메뉴 전체 메뉴 세계와미래 글로벌 경영 투자 문화 시장과경제 경제 금융 증권 부동산 산업·테크 재계 자동차 전자 유통·소비 IT 과학 제약·바이오 산업종합 정치·사회 정치 사회 인사 동정 부고 문화·스포츠 문화종합 연극·뮤지컬 영화 공연·전시 연예·대중문화 라이프 스포츠 전국 서울 경기 인천 부산 경남 강원 광주 전남·전북 대구·경북 대전·세종·충남 리뷰·팩트체크 기획·여론 기획 칼럼 멀티미디어 인터뷰 K뉴딜 사설 한국정치경제TV 커뮤니티 사고(社告) 자유게시판 세계와미래 글로벌 경영 투자 문화 시장과경제 경제 금융 증권 부동산 산업·테크 재계 자동차 전자 유통·소비 IT 과학 제약·바이오 산업종합 정치·사회 정치 사회 인사 동정 부고 문화·스포츠 문화종합 연극·뮤지컬 영화 공연·전시 연예·대중문화 라이프 스포츠 전국 서울 경기 인천 부산 경남 강원 광주 전남·전북 대구·경북 대전·세종·충남 리뷰·팩트체크 기획·여론 기획 칼럼 멀티미디어 인터뷰 K뉴딜 사설 한국정치경제TV 전체 기사 커뮤니티 사고(社告) 자유게시판 전체메뉴 전체기사보기 세계와미래 시장과경제 산업·테크 정치·사회 문화·스포츠 전국 리뷰·팩트체크 기획·여론 한국정치경제TV 신문사 소개 CEO 인사말 연 혁 윤리기준 사고(社告) 자유게시판 기사제보 독자투고 불편신고 제휴·광고·저작권 문의 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 로그인 마이페이지 로그아웃 서치 제목 내용 작성자 제목+내용 검색 초기화 Home 정치·사회 사회 제주도 여행객 코로나 확진자 동선공개..유명관광지·식당·카페 등 접촉자만 119명 최태원 기자 승인 2020.06.01 00:28 의견 0 5월 31일 오후 제주도청이 공개한 제주 여행객 코로나 확진자 동선 (자료=제주도청 홈페이지) [한국정경신문=최태원 기자] 제주도청이 제주도를 여행한 이후 코로나19 확진 판정을 받은 확진자들의 동선을 공개했다. 제주도청은 지난 5월 31일 오후 도청 홈페이지를 통해 경기 군포시 및 안양시 코로나 확진자들의 도내 동선을 공개했다. 25명의 일행은 지난 5월 25일부터 27일까지 2박 3일간 제주도를 여행했고 이들 중 지난 31일까지 6명이 확진 판정을 받았다. 이들 확진자들이 제주도 내에서 접촉한 인원은 총 119명으로 확인됐다. 이들은 지난 25일 입도부터 27일 출도시까지 제주도 내 다양한 영업장을 방문했다. 지난 25일 오전 7시 30분 에어부산 BX8017편으로 입도한 이후 당일에만 한림공원, 복태네갈치탕, 오설록 티 뮤지엄, 동홍정육식당, 천지역폭포, 펠릭스 카페 등을 방문했다. 26일에도 서귀포 아인스호텔에서 조식 후 섭지코지, 성산일출봉, 오조 해녀의 집, 호항호랑 카페, 비자림 숲, 퍼시픽 리솜 엘마리노 뷔페, 빌라드아토 등을 찾았다. 27일에는 아인스호텔에서 체크아웃 한 이후 사려니 숲길, 순옥이네 명가, JDC면세점 등을 방문했고 이어 진에어 LJ312편으로 오후 1시 45분에 김포로 출발했다. UP0 DOWN0 한국정경신문 최태원 기자 ctw0104@gmail.com 최태원 기자의 기사 더보기 저작권자 &lt;지식과 문화가 있는 뉴스&gt; ⓒ한국정경신문 | 상업적 용도로 무단 전제, 재배포를 금지합니다. 댓글 0개의 댓글 등록 처리중.. 0 / 500 섹션 많이 본 기사 1 제주도서 울려퍼진 사회복지전담공무원의 외침.."우리는 모두 전문가" 이상훈 기자 사회 2 요양병원·시설 접촉면회 내달 4일부터 허용..내일부터 '입국 후 PCR'도 해제 김성원 기자 사회 3 [단독] LG CNS 말렸는데 복지부 강행..차세대복지e음 먹통에 공무원만 '욕받이' 이상훈 기자 사회 4 장근석&amp;크리제이, 청각장애 아동 위해 사랑의달팽이에 3천만원 기부 김영훈 기자 사회 5 여수산단 철거 중인 공장 배관서 화학물질 유출..“인명피해 없어” 김준혁 기자 사회 6 신변 위해·재산 피해 우려될 때..주민등록번호, 온라인 변경 신청 가능해져 김준혁 기자 사회 7 청와대 개방 146일만에 200만명 다녀갔다.."작년 경복궁 관람객의 1.9배" 이정화 기자 사회 섹션 주요기사 1 요양병원·시설 접촉면회 내달 4일부터 허용..내일부터 '입국 후 PCR'도 해제 김성원 기자 사회 2 제주도서 울려퍼진 사회복지전담공무원의 외침.."우리는 모두 전문가" 이상훈 기자 사회 3 [추석 연휴] 부산~서울 5시간40분 소요..고속도로 정체 오후 9시 이후 풀릴 듯 강헌주 기자 사회 4 [추석 연휴] 거리두기 해제 후 첫 명절..전국 곳곳서 귀성행렬 이상훈 기자 사회 5 추석 연휴 대중교통 '한칸 띄어앉기' 없다..9∼12일 고속도로 통행료 면제 김성원 기자 사회 6 ‘론스타 사건’ 10년 만에 결론..한국 정부, 2800억+α 배상 판정 윤성균 기자 사회 섹션 최신기사 1 [단독] LG CNS 말렸는데 복지부 강행..차세대복지e음 먹통에 공무원만 '욕받이' 이상훈 기자 사회 2 신변 위해·재산 피해 우려될 때..주민등록번호, 온라인 변경 신청 가능해져 김준혁 기자 사회 3 여수산단 철거 중인 공장 배관서 화학물질 유출..“인명피해 없어” 김준혁 기자 사회 4 청와대 개방 146일만에 200만명 다녀갔다.."작년 경복궁 관람객의 1.9배" 이정화 기자 사회 5 요양병원·시설 접촉면회 내달 4일부터 허용..내일부터 '입국 후 PCR'도 해제 김성원 기자 사회 6 제주도서 울려퍼진 사회복지전담공무원의 외침.."우리는 모두 전문가" 이상훈 기자 사회 7 장근석&amp;크리제이, 청각장애 아동 위해 사랑의달팽이에 3천만원 기부 김영훈 기자 사회 8 홍대 클럽서 한국인 폭행 주한미군 현행범 체포..미국 헌병대 이송 이상훈 기자 사회 헤드라인 뉴스 1 [단독] LG CNS 말렸는데 복지부 강행..차세대복지e음 먹통에 공무원만 '욕받이' 이상훈 기자 사회 2 삼성전자 '4만전자' 위기인데..'개미들' 하락장에도 9월 한 달간 2조 순매수 이정화 기자 증권 3 대한항공·아시아나 M&amp;A.."결합심사 결과 내달 영국·미국서 발표될 듯" 이정화 기자 유통·소비 4 대우건설 “이주비 10억 지원”..한남2구역 수주전 갈수록 뜨겁다 강헌주 기자 부동산 5 주가·실적 위태로운 카카오뱅크..고급 인력 채용에 스톡옵션 ‘베팅’ 윤성균 기자 금융 6 정부發 자제 당부도 소용없나..식품업계, 하반기 가공식품 물가 ‘고공행진’ 김제영 기자 유통·소비 7 서울 아파트 공급 확 늘까..정부, 재건축 재초환 부담금 대폭 완화 강헌주 기자 부동산 8 이 시국에 ‘돈복사’ 환전 소동이라니..토스증권 서비스 플랫폼 신뢰도 괜찮나 윤성균 기자 금융 댓글 많은 기사 1 "어르신 사랑 한몸에"..오스템임플란트, 모델 '김다현·김태연 양' 대외활동 지원 나서 김제영 기자 유통·소비 2 제주도서 울려퍼진 사회복지전담공무원의 외침.."우리는 모두 전문가" 이상훈 기자 사회 3 [단독] LG CNS 말렸는데 복지부 강행..차세대복지e음 먹통에 공무원만 '욕받이' 이상훈 기자 사회 4 "대우조선 다음은?" HMM 민영화에 쏠린 눈..'현대맨' 김경배 사장 선임 배경 재조명 이정화 기자 산업종합 5 대흥정보, 우수벤처기업 지속성장부문에 선정..“미래 주차시스템 선도할 것” 김형규 기자 산업종합 6 카타르 월드컵 직관 기회..한국맥도날드, ‘행운의 원더랜드’ 이벤트 진행 김준혁 기자 유통·소비 7 주가 6만원 무너진 날 당뇨병 공개..실적·건강 경고등 켜진 남궁훈 카카오 대표 이상훈 기자 IT 8 [현장+] 카카오 '돈 넘어 돈' 소비자 "그래도 너밖에 없다" 이정화 기자 칼럼 주요 기사 1 "LH 임대주택 어린이집 10곳 중 1곳서 석면 검출"..지자체 통보 후 후속조치 미비 최경환 기자 정치 2 "올해 3.5조원 몰렸다" 북미펀드의 독주..美 증시 약세에 수익률은 '부진' 이정화 기자 증권 3 윤석열 정부 첫 국감 4일 막 오른다..전 정부 책임론 vs 현 정부 견제론 '격돌 전야' 이정화 기자 정치 4 [WHY] 고물가 부담, 깊어지는 고민..이마트, 최저가 접고 자체 브랜드 ‘가격 동결’ 김제영 기자 유통·소비 5 [현장+] 카카오 '돈 넘어 돈' 소비자 "그래도 너밖에 없다" 이정화 기자 칼럼 신문사 소개 연 혁 윤리기준 사고(社告) 자유게시판 기사제보 독자투고 불편신고 제휴·광고·저작권 문의 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 (주)한국정경신문 서울 영등포구 여의나루로 53-1 대오빌딩 11층 | 070-4908-0065 | kpenewscom@gmail.com 대표 이경호 | 발행인·사장 김 혁 | 편집인 김성원 | 청소년보호책임자 강헌주 | 인터넷신문 등록번호 서울 아 01248 | 등록일자 2010.05.28. 2022 © (주) 한국정경신문 All rights reserved. | '디지털 세상을 읽는 미디어' 디지털머니 | '컨텐츠 플랫폼' 뉴스브릿지 | '전기차의 모든 것' 전기차닷컴 |</t>
+    <t>제주도 여행객 코로나 확진자 동선공개..유명관광지·식당·카페 등 접촉자만 119명 | 한국정경신문 맑음 SEOUUL JAYANGDONG 17 제목 내용 작성자 제목+내용 서치 로그인 마이페이지 로그아웃 회원가입 로그인 전체 메뉴 전체 메뉴 세계와미래 글로벌 경영 투자 문화 시장과경제 경제 금융 증권 부동산 산업·테크 재계 자동차 전자 유통·소비 IT 과학 제약·바이오 산업종합 정치·사회 정치 사회 인사 동정 부고 문화·스포츠 문화종합 연극·뮤지컬 영화 공연·전시 연예·대중문화 라이프 스포츠 전국 서울 경기 인천 부산 경남 강원 광주 전남·전북 대구·경북 대전·세종·충남 리뷰·팩트체크 기획·여론 기획 칼럼 멀티미디어 인터뷰 K뉴딜 사설 한국정치경제TV 커뮤니티 사고(社告) 자유게시판 세계와미래 글로벌 경영 투자 문화 시장과경제 경제 금융 증권 부동산 산업·테크 재계 자동차 전자 유통·소비 IT 과학 제약·바이오 산업종합 정치·사회 정치 사회 인사 동정 부고 문화·스포츠 문화종합 연극·뮤지컬 영화 공연·전시 연예·대중문화 라이프 스포츠 전국 서울 경기 인천 부산 경남 강원 광주 전남·전북 대구·경북 대전·세종·충남 리뷰·팩트체크 기획·여론 기획 칼럼 멀티미디어 인터뷰 K뉴딜 사설 한국정치경제TV 전체 기사 커뮤니티 사고(社告) 자유게시판 전체메뉴 전체기사보기 세계와미래 시장과경제 산업·테크 정치·사회 문화·스포츠 전국 리뷰·팩트체크 기획·여론 한국정치경제TV 신문사 소개 CEO 인사말 연 혁 윤리기준 사고(社告) 자유게시판 기사제보 독자투고 불편신고 제휴·광고·저작권 문의 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 로그인 마이페이지 로그아웃 서치 제목 내용 작성자 제목+내용 검색 초기화 Home 정치·사회 사회 제주도 여행객 코로나 확진자 동선공개..유명관광지·식당·카페 등 접촉자만 119명 최태원 기자 승인 2020.06.01 00:28 의견 0 5월 31일 오후 제주도청이 공개한 제주 여행객 코로나 확진자 동선 (자료=제주도청 홈페이지) [한국정경신문=최태원 기자] 제주도청이 제주도를 여행한 이후 코로나19 확진 판정을 받은 확진자들의 동선을 공개했다. 제주도청은 지난 5월 31일 오후 도청 홈페이지를 통해 경기 군포시 및 안양시 코로나 확진자들의 도내 동선을 공개했다. 25명의 일행은 지난 5월 25일부터 27일까지 2박 3일간 제주도를 여행했고 이들 중 지난 31일까지 6명이 확진 판정을 받았다. 이들 확진자들이 제주도 내에서 접촉한 인원은 총 119명으로 확인됐다. 이들은 지난 25일 입도부터 27일 출도시까지 제주도 내 다양한 영업장을 방문했다. 지난 25일 오전 7시 30분 에어부산 BX8017편으로 입도한 이후 당일에만 한림공원, 복태네갈치탕, 오설록 티 뮤지엄, 동홍정육식당, 천지역폭포, 펠릭스 카페 등을 방문했다. 26일에도 서귀포 아인스호텔에서 조식 후 섭지코지, 성산일출봉, 오조 해녀의 집, 호항호랑 카페, 비자림 숲, 퍼시픽 리솜 엘마리노 뷔페, 빌라드아토 등을 찾았다. 27일에는 아인스호텔에서 체크아웃 한 이후 사려니 숲길, 순옥이네 명가, JDC면세점 등을 방문했고 이어 진에어 LJ312편으로 오후 1시 45분에 김포로 출발했다. UP0 DOWN0 한국정경신문 최태원 기자 ctw0104@gmail.com 최태원 기자의 기사 더보기 저작권자 &lt;지식과 문화가 있는 뉴스&gt; ⓒ한국정경신문 | 상업적 용도로 무단 전제, 재배포를 금지합니다. 댓글 0개의 댓글 등록 처리중.. 0 / 500 섹션 많이 본 기사 1 “한글은 한류를 이끄는 힘”..연세한글탑 건립 30주년 기념 행사 강헌주 기자 사회 2 "미래의 무역실무 전문가 양성"..단국대 GTEP, 오사카 라이프스타일 전시회 참가 김성원 기자 사회 3 검찰, 롯데바이오 압수수색..삼성바이오 영업비밀 침해 의혹 김제영 기자 사회 4 해경, 백령도 인근서 불법조업하던 중국 어선 2척 나포 이상훈 기자 사회 5 무비자 일본 관광 2년7개월만에 11일부터 재개.."한국·대만서 예약 급증" 윤성균 기자 사회 6 2015년 이후 외국인 전국 아파트 매수 3만건..중국인 62% 차지, 가장 인기 지역은? 윤성균 기자 사회 7 코로나19 신규확진 8981명, 98일만에 1만명 아래로..한글날 연휴 검사 급감 영향 윤성균 기자 사회 8 38만가구, 소득 40% 이상 원리금 상환에 사용..집 등 자산 팔아도 빚 못 갚는 현실 윤성균 기자 사회 섹션 주요기사 1 “한글은 한류를 이끄는 힘”..연세한글탑 건립 30주년 기념 행사 강헌주 기자 사회 2 요양병원·시설 접촉면회 내달 4일부터 허용..내일부터 '입국 후 PCR'도 해제 김성원 기자 사회 3 제주도서 울려퍼진 사회복지전담공무원의 외침.."우리는 모두 전문가" 이상훈 기자 사회 4 [추석 연휴] 부산~서울 5시간40분 소요..고속도로 정체 오후 9시 이후 풀릴 듯 강헌주 기자 사회 5 [추석 연휴] 거리두기 해제 후 첫 명절..전국 곳곳서 귀성행렬 이상훈 기자 사회 6 추석 연휴 대중교통 '한칸 띄어앉기' 없다..9∼12일 고속도로 통행료 면제 김성원 기자 사회 섹션 최신기사 1 무비자 일본 관광 2년7개월만에 11일부터 재개.."한국·대만서 예약 급증" 윤성균 기자 사회 2 코로나19 신규확진 8981명, 98일만에 1만명 아래로..한글날 연휴 검사 급감 영향 윤성균 기자 사회 3 38만가구, 소득 40% 이상 원리금 상환에 사용..집 등 자산 팔아도 빚 못 갚는 현실 윤성균 기자 사회 4 2015년 이후 외국인 전국 아파트 매수 3만건..중국인 62% 차지, 가장 인기 지역은? 윤성균 기자 사회 5 해경, 백령도 인근서 불법조업하던 중국 어선 2척 나포 이상훈 기자 사회 6 검찰, 롯데바이오 압수수색..삼성바이오 영업비밀 침해 의혹 김제영 기자 사회 7 “한글은 한류를 이끄는 힘”..연세한글탑 건립 30주년 기념 행사 강헌주 기자 사회 8 "미래의 무역실무 전문가 양성"..단국대 GTEP, 오사카 라이프스타일 전시회 참가 김성원 기자 사회 헤드라인 뉴스 1 현대차 '황금알' 중고차 시장 출격 초읽기..인프라 구축 '기대' vs 시장 독식 '우려' 이정화 기자 자동차 2 복지시스템 마비..LG CNS, 국회서 책임통감한다더니 대책묻자 “복지부에 물어보라” 이상훈 기자 IT 3 우크라이나 키이우 큰 폭발, 사상자 여러 명 발생..러, 미사일 공습 가능성 윤성균 기자 글로벌 4 약세장에 잇단 흥행실패, 기업공개 시장 '찬바람;..컬리·케이뱅크 상장, 내년 갈 듯 윤성균 기자 증권 5 한화건설, 14조원 규모 이라크 신도시 사업 철수한다..공사대금 못받고 더 큰 손실 우려 윤성균 기자 부동산 6 무비자 일본 관광 2년7개월만에 11일부터 재개.."한국·대만서 예약 급증" 윤성균 기자 사회 7 기업들 “4분기 제조업 경기 더 어려워질 것”..신산업·ICT도 부진할 것으로 예상 윤성균 기자 산업종합 8 코로나19 신규확진 8981명, 98일만에 1만명 아래로..한글날 연휴 검사 급감 영향 윤성균 기자 사회 댓글 많은 기사 1 "트와이스 발탁부터 이준호 팬미팅까지"..롯데면세점, K컬처 마케팅 글로벌 공략 개시 김제영 기자 유통·소비 2 [국감] 불 끄라고 보냈더니 기름 부은 현산 정익희 대표.."정몽규 소환하자" 불똥 최경환 기자 정치 3 급성장하는 로보어드바이저 시장..든든·파운트·핀트 3강체제 굳혔다 이상훈 기자 IT 4 고려아연, 2차전지 소재사업 가치 부각 전망..목표가 62만→73만원-하나증권 윤성균 기자 증권 5 '어닝쇼크' 삼성전자, 주가에 쏠리는 관심.."당분간 변동성 클 것" 김제영 기자 증권 6 우미건설, 파주 운정신도시 우미린 센터포레 견본주택 오픈..총 522가구 조성 강헌주 기자 부동산 7 쉽게 글 배우라고 만든 한글인데..도로명·아파트명에 정체불명 외국어가 가득 이상훈 기자 부동산 8 중흥토건, 익산 중흥S-클래스 퍼스트파크 7일 견본주택 개관..2025년 9월 입주 예정 강헌주 기자 부동산 주요 기사 1 쉽게 글 배우라고 만든 한글인데..도로명·아파트명에 정체불명 외국어가 가득 이상훈 기자 부동산 2 “국가경쟁력 확보위해 과학의전당 건립 절실”..건립 추진 포럼 열려 강헌주 기자 정치 3 [현장+] 끊이지 않는 ‘위생·안전’ 논란..맥도날드, ‘눈 가리고 아웅’식 대처 언제까지 김제영 기자 칼럼 4 '어닝쇼크' 삼성전자, 주가에 쏠리는 관심.."당분간 변동성 클 것" 김제영 기자 증권 5 대흥정보, 국토부로부터 ‘스마트 파킹서비스’ 인증..“주차서비스 혁신적 개선” 김형규 기자 산업종합 신문사 소개 연 혁 윤리기준 사고(社告) 자유게시판 기사제보 독자투고 불편신고 제휴·광고·저작권 문의 이용약관 개인정보취급방침 청소년보호정책 이메일무단수집거부 (주)한국정경신문 서울 영등포구 여의나루로 53-1 대오빌딩 11층 | 070-4908-0065 | kpenewscom@gmail.com 대표 이경호 | 발행인·사장 김 혁 | 편집인 김성원 | 청소년보호책임자 강헌주 | 인터넷신문 등록번호 서울 아 01248 | 등록일자 2010.05.28. 2022 © (주) 한국정경신문 All rights reserved. | '디지털 세상을 읽는 미디어' 디지털머니 | '컨텐츠 플랫폼' 뉴스브릿지 | '전기차의 모든 것' 전기차닷컴 |</t>
   </si>
 </sst>
 </file>
@@ -431,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,9 +633,6 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -485,6 +641,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -494,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -505,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -515,6 +674,9 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -524,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +708,331 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
